--- a/report_ca_nhan/NV-5 Nguyễn Hoàng Yến Quyên 7-2024.xlsx
+++ b/report_ca_nhan/NV-5 Nguyễn Hoàng Yến Quyên 7-2024.xlsx
@@ -419,7 +419,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T1"/>
+  <dimension ref="A1:T2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -528,6 +528,44 @@
           <t>Phụ phẫu 2</t>
         </is>
       </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr"/>
+      <c r="B2" t="n">
+        <v/>
+      </c>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr"/>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="inlineStr"/>
+      <c r="S2" t="inlineStr"/>
+      <c r="T2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/report_ca_nhan/NV-5 Nguyễn Hoàng Yến Quyên 7-2024.xlsx
+++ b/report_ca_nhan/NV-5 Nguyễn Hoàng Yến Quyên 7-2024.xlsx
@@ -8,12 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="Đơn sale chính" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Đơn sale phụ" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Đơn 1 bác sĩ" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="Đơn 2 bác sĩ" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="Đơn phụ phẫu 1" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="Đơn phụ phẫu 2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="Đơn thu nợ" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="Đơn 1 bác sĩ" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -419,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T2"/>
+  <dimension ref="A1:V3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -528,44 +523,148 @@
           <t>Phụ phẫu 2</t>
         </is>
       </c>
+      <c r="U1" t="inlineStr">
+        <is>
+          <t>Công phụ phẫu 1</t>
+        </is>
+      </c>
+      <c r="V1" t="inlineStr">
+        <is>
+          <t>Công phụ phẫu 2</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr"/>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
       <c r="B2" t="n">
-        <v/>
-      </c>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
+        <v>515</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>07-03-2024</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Khưu Thị Phượng Gấm</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Cá nhân</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Tiêm Filler</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Nguyễn Hoàng Yến Quyên</t>
+        </is>
+      </c>
       <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="inlineStr"/>
+        <v>4500000</v>
+      </c>
+      <c r="J2" t="n">
+        <v/>
+      </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>4500000</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>4500000</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>4500000</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
       </c>
-      <c r="Q2" t="inlineStr"/>
-      <c r="R2" t="inlineStr"/>
-      <c r="S2" t="inlineStr"/>
-      <c r="T2" t="inlineStr"/>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>Lâm Thị Mỹ Hằng</t>
+        </is>
+      </c>
+      <c r="R2" t="n">
+        <v/>
+      </c>
+      <c r="S2" t="n">
+        <v/>
+      </c>
+      <c r="T2" t="n">
+        <v/>
+      </c>
+      <c r="U2" t="n">
+        <v>50000</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Tổng</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="n">
+        <v>4500000</v>
+      </c>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>4500000</v>
+      </c>
+      <c r="M3" t="n">
+        <v>4500000</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>4500000</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="inlineStr"/>
+      <c r="S3" t="inlineStr"/>
+      <c r="T3" t="inlineStr"/>
+      <c r="U3" t="n">
+        <v>50000</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -578,7 +677,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T1"/>
+  <dimension ref="A1:V4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -687,125 +786,14 @@
           <t>Phụ phẫu 2</t>
         </is>
       </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:T2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Tiền tố</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Mã dịch vụ</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Ngày thực hiện</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Cơ sở</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Khách hàng</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Nguồn khách</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Tên dịch vụ</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Sale chính</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>Đơn giá gốc</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>Sale phụ</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>Upsale</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>Đơn giá</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>Thanh toán lần đầu</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>Trả sau</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>Đã thanh toán</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>Dư nợ</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>Bác sĩ 1</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>Bác sĩ 2</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>Phụ phẫu 1</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>Phụ phẫu 2</t>
+      <c r="U1" t="inlineStr">
+        <is>
+          <t>Công phụ phẫu 1</t>
+        </is>
+      </c>
+      <c r="V1" t="inlineStr">
+        <is>
+          <t>Công phụ phẫu 2</t>
         </is>
       </c>
     </row>
@@ -888,424 +876,143 @@
       <c r="T2" t="n">
         <v/>
       </c>
+      <c r="U2" t="n">
+        <v/>
+      </c>
+      <c r="V2" t="n">
+        <v/>
+      </c>
     </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:T1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Tiền tố</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Mã dịch vụ</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Ngày thực hiện</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Cơ sở</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Khách hàng</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Nguồn khách</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Tên dịch vụ</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Sale chính</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>Đơn giá gốc</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>Sale phụ</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>Upsale</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>Đơn giá</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>Thanh toán lần đầu</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>Trả sau</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>Đã thanh toán</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>Dư nợ</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>Bác sĩ 1</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>Bác sĩ 2</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>Phụ phẫu 1</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>Phụ phẫu 2</t>
-        </is>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>510</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>07-01-2024</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Nguyễn Văn Đình Quân</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Khách cũ</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Tiêm Filler</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Lâm Thị Mỹ Hằng</t>
+        </is>
+      </c>
+      <c r="I3" t="n">
+        <v>500000</v>
+      </c>
+      <c r="J3" t="n">
+        <v/>
+      </c>
+      <c r="K3" t="n">
+        <v/>
+      </c>
+      <c r="L3" t="n">
+        <v>500000</v>
+      </c>
+      <c r="M3" t="n">
+        <v>500000</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>500000</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>Nguyễn Hoàng Yến Quyên</t>
+        </is>
+      </c>
+      <c r="R3" t="n">
+        <v/>
+      </c>
+      <c r="S3" t="n">
+        <v/>
+      </c>
+      <c r="T3" t="n">
+        <v/>
+      </c>
+      <c r="U3" t="n">
+        <v>50000</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
       </c>
     </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:T1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Tiền tố</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Mã dịch vụ</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Ngày thực hiện</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Cơ sở</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Khách hàng</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Nguồn khách</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Tên dịch vụ</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Sale chính</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>Đơn giá gốc</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>Sale phụ</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>Upsale</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>Đơn giá</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>Thanh toán lần đầu</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>Trả sau</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>Đã thanh toán</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>Dư nợ</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>Bác sĩ 1</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>Bác sĩ 2</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>Phụ phẫu 1</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>Phụ phẫu 2</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:T1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Tiền tố</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Mã dịch vụ</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Ngày thực hiện</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Cơ sở</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Khách hàng</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Nguồn khách</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Tên dịch vụ</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Sale chính</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>Đơn giá gốc</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>Sale phụ</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>Upsale</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>Đơn giá</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>Thanh toán lần đầu</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>Trả sau</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>Đã thanh toán</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>Dư nợ</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>Bác sĩ 1</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>Bác sĩ 2</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>Phụ phẫu 1</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>Phụ phẫu 2</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:G1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Tiền tố</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Mã đơn thu nợ</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Đơn nợ</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Cơ sở</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Lượng thu</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Sale</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Ngày thu</t>
-        </is>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Tổng</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="n">
+        <v>8500000</v>
+      </c>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>8500000</v>
+      </c>
+      <c r="M4" t="n">
+        <v>8500000</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
+        <v>8500000</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="inlineStr"/>
+      <c r="S4" t="inlineStr"/>
+      <c r="T4" t="inlineStr"/>
+      <c r="U4" t="n">
+        <v>50000</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/report_ca_nhan/NV-5 Nguyễn Hoàng Yến Quyên 7-2024.xlsx
+++ b/report_ca_nhan/NV-5 Nguyễn Hoàng Yến Quyên 7-2024.xlsx
@@ -9,6 +9,7 @@
   <sheets>
     <sheet name="Đơn sale chính" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="Đơn 1 bác sĩ" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Lương" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -677,7 +678,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V4"/>
+  <dimension ref="A1:V8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -970,52 +971,414 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Tổng</t>
+          <t>HD-LUXURY</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2</v>
-      </c>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr"/>
+        <v>519</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>07-05-2024</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>na quy</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>CTV</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Tiêm Filler</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Thạch Hoàng Nhân</t>
+        </is>
+      </c>
       <c r="I4" t="n">
-        <v>8500000</v>
-      </c>
-      <c r="J4" t="inlineStr"/>
+        <v>21500000</v>
+      </c>
+      <c r="J4" t="n">
+        <v/>
+      </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="L4" t="n">
-        <v>8500000</v>
+        <v>21500000</v>
       </c>
       <c r="M4" t="n">
-        <v>8500000</v>
+        <v>21500000</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>8500000</v>
+        <v>21500000</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
       </c>
-      <c r="Q4" t="inlineStr"/>
-      <c r="R4" t="inlineStr"/>
-      <c r="S4" t="inlineStr"/>
-      <c r="T4" t="inlineStr"/>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>Nguyễn Hoàng Yến Quyên</t>
+        </is>
+      </c>
+      <c r="R4" t="n">
+        <v/>
+      </c>
+      <c r="S4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Kha Như Huỳnh </t>
+        </is>
+      </c>
+      <c r="T4" t="n">
+        <v/>
+      </c>
       <c r="U4" t="n">
         <v>50000</v>
       </c>
       <c r="V4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>525</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>07-06-2024</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Đặng Thị Huệ</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>KCH</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Nâng cung chân mày</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Đỗ Thị Huyền Trân</t>
+        </is>
+      </c>
+      <c r="I5" t="n">
+        <v>3700000</v>
+      </c>
+      <c r="J5" t="n">
+        <v/>
+      </c>
+      <c r="K5" t="n">
+        <v/>
+      </c>
+      <c r="L5" t="n">
+        <v>3700000</v>
+      </c>
+      <c r="M5" t="n">
+        <v>3700000</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>3700000</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>Nguyễn Hoàng Yến Quyên</t>
+        </is>
+      </c>
+      <c r="R5" t="n">
+        <v/>
+      </c>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>Lâm Hoàng Phú</t>
+        </is>
+      </c>
+      <c r="T5" t="n">
+        <v/>
+      </c>
+      <c r="U5" t="n">
+        <v>50000</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>526</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>07-06-2024</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Hoàng Thị Thu Vân</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>CTV</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Phun mày</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>CTV Ngoài</t>
+        </is>
+      </c>
+      <c r="I6" t="n">
+        <v>500000</v>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>Đỗ Thị Huyền Trân</t>
+        </is>
+      </c>
+      <c r="K6" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="L6" t="n">
+        <v>1500000</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="P6" t="n">
+        <v>500000</v>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>Nguyễn Hoàng Yến Quyên</t>
+        </is>
+      </c>
+      <c r="R6" t="n">
+        <v/>
+      </c>
+      <c r="S6" t="n">
+        <v/>
+      </c>
+      <c r="T6" t="n">
+        <v/>
+      </c>
+      <c r="U6" t="n">
+        <v/>
+      </c>
+      <c r="V6" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>529</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>07-07-2024</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>nguyễn thị hân</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Cá nhân</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Cắt mí</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Lê Đình Hậu</t>
+        </is>
+      </c>
+      <c r="I7" t="n">
+        <v>7000000</v>
+      </c>
+      <c r="J7" t="n">
+        <v/>
+      </c>
+      <c r="K7" t="n">
+        <v/>
+      </c>
+      <c r="L7" t="n">
+        <v>7000000</v>
+      </c>
+      <c r="M7" t="n">
+        <v>4000000</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>4000000</v>
+      </c>
+      <c r="P7" t="n">
+        <v>3000000</v>
+      </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>Nguyễn Hoàng Yến Quyên</t>
+        </is>
+      </c>
+      <c r="R7" t="n">
+        <v/>
+      </c>
+      <c r="S7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Kha Như Huỳnh </t>
+        </is>
+      </c>
+      <c r="T7" t="n">
+        <v/>
+      </c>
+      <c r="U7" t="n">
+        <v/>
+      </c>
+      <c r="V7" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Tổng</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="n">
+        <v>41200000</v>
+      </c>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="L8" t="n">
+        <v>42200000</v>
+      </c>
+      <c r="M8" t="n">
+        <v>38700000</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>38700000</v>
+      </c>
+      <c r="P8" t="n">
+        <v>3500000</v>
+      </c>
+      <c r="Q8" t="inlineStr"/>
+      <c r="R8" t="inlineStr"/>
+      <c r="S8" t="inlineStr"/>
+      <c r="T8" t="inlineStr"/>
+      <c r="U8" t="n">
+        <v>150000</v>
+      </c>
+      <c r="V8" t="n">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/report_ca_nhan/NV-5 Nguyễn Hoàng Yến Quyên 7-2024.xlsx
+++ b/report_ca_nhan/NV-5 Nguyễn Hoàng Yến Quyên 7-2024.xlsx
@@ -415,7 +415,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V3"/>
+  <dimension ref="A1:AA4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,82 +456,107 @@
       </c>
       <c r="G1" t="inlineStr">
         <is>
+          <t>Nhóm dịch vụ</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
           <t>Tên dịch vụ</t>
         </is>
       </c>
-      <c r="H1" t="inlineStr">
+      <c r="I1" t="inlineStr">
         <is>
           <t>Sale chính</t>
         </is>
       </c>
-      <c r="I1" t="inlineStr">
+      <c r="J1" t="inlineStr">
         <is>
           <t>Đơn giá gốc</t>
         </is>
       </c>
-      <c r="J1" t="inlineStr">
+      <c r="K1" t="inlineStr">
         <is>
           <t>Sale phụ</t>
         </is>
       </c>
-      <c r="K1" t="inlineStr">
+      <c r="L1" t="inlineStr">
         <is>
           <t>Upsale</t>
         </is>
       </c>
-      <c r="L1" t="inlineStr">
+      <c r="M1" t="inlineStr">
         <is>
           <t>Đơn giá</t>
         </is>
       </c>
-      <c r="M1" t="inlineStr">
+      <c r="N1" t="inlineStr">
         <is>
           <t>Thanh toán lần đầu</t>
         </is>
       </c>
-      <c r="N1" t="inlineStr">
+      <c r="O1" t="inlineStr">
         <is>
           <t>Trả sau</t>
         </is>
       </c>
-      <c r="O1" t="inlineStr">
+      <c r="P1" t="inlineStr">
         <is>
           <t>Đã thanh toán</t>
         </is>
       </c>
-      <c r="P1" t="inlineStr">
+      <c r="Q1" t="inlineStr">
         <is>
           <t>Dư nợ</t>
         </is>
       </c>
-      <c r="Q1" t="inlineStr">
+      <c r="R1" t="inlineStr">
         <is>
           <t>Bác sĩ 1</t>
         </is>
       </c>
-      <c r="R1" t="inlineStr">
+      <c r="S1" t="inlineStr">
         <is>
           <t>Bác sĩ 2</t>
         </is>
       </c>
-      <c r="S1" t="inlineStr">
+      <c r="T1" t="inlineStr">
         <is>
           <t>Phụ phẫu 1</t>
         </is>
       </c>
-      <c r="T1" t="inlineStr">
+      <c r="U1" t="inlineStr">
         <is>
           <t>Phụ phẫu 2</t>
         </is>
       </c>
-      <c r="U1" t="inlineStr">
+      <c r="V1" t="inlineStr">
         <is>
           <t>Công phụ phẫu 1</t>
         </is>
       </c>
-      <c r="V1" t="inlineStr">
+      <c r="W1" t="inlineStr">
         <is>
           <t>Công phụ phẫu 2</t>
+        </is>
+      </c>
+      <c r="X1" t="inlineStr">
+        <is>
+          <t>Tỉ lệ chiết khấu sale chính</t>
+        </is>
+      </c>
+      <c r="Y1" t="inlineStr">
+        <is>
+          <t>Tỉ lệ chiết khấu sale phụ</t>
+        </is>
+      </c>
+      <c r="Z1" t="inlineStr">
+        <is>
+          <t>Chiết khấu sale chính</t>
+        </is>
+      </c>
+      <c r="AA1" t="inlineStr">
+        <is>
+          <t>Chiết khấu sale phụ</t>
         </is>
       </c>
     </row>
@@ -566,46 +591,48 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
+          <t>Các ngoại khoa khác</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
           <t>Tiêm Filler</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>Nguyễn Hoàng Yến Quyên</t>
         </is>
       </c>
-      <c r="I2" t="n">
+      <c r="J2" t="n">
         <v>4500000</v>
       </c>
-      <c r="J2" t="n">
-        <v/>
-      </c>
       <c r="K2" t="n">
         <v/>
       </c>
       <c r="L2" t="n">
-        <v>4500000</v>
+        <v/>
       </c>
       <c r="M2" t="n">
         <v>4500000</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>4500000</v>
       </c>
       <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
         <v>4500000</v>
       </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" t="inlineStr">
+      <c r="Q2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" t="inlineStr">
         <is>
           <t>Lâm Thị Mỹ Hằng</t>
         </is>
       </c>
-      <c r="R2" t="n">
-        <v/>
-      </c>
       <c r="S2" t="n">
         <v/>
       </c>
@@ -613,57 +640,186 @@
         <v/>
       </c>
       <c r="U2" t="n">
+        <v/>
+      </c>
+      <c r="V2" t="n">
         <v>50000</v>
       </c>
-      <c r="V2" t="n">
+      <c r="W2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X2" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>675000</v>
+      </c>
+      <c r="AA2" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>534</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>07-09-2024</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Khưu Thị Phượng Gấm</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Cá nhân</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Các ngoại khoa khác</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Tiêm Filler</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>Nguyễn Hoàng Yến Quyên</t>
+        </is>
+      </c>
+      <c r="J3" t="n">
+        <v>1500000</v>
+      </c>
+      <c r="K3" t="n">
+        <v/>
+      </c>
+      <c r="L3" t="n">
+        <v/>
+      </c>
+      <c r="M3" t="n">
+        <v>1500000</v>
+      </c>
+      <c r="N3" t="n">
+        <v>1500000</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
+        <v>1500000</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R3" t="inlineStr">
+        <is>
+          <t>Lâm Thị Mỹ Hằng</t>
+        </is>
+      </c>
+      <c r="S3" t="n">
+        <v/>
+      </c>
+      <c r="T3" t="n">
+        <v/>
+      </c>
+      <c r="U3" t="n">
+        <v/>
+      </c>
+      <c r="V3" t="n">
+        <v>50000</v>
+      </c>
+      <c r="W3" t="n">
+        <v>0</v>
+      </c>
+      <c r="X3" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>150000</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
           <t>Tổng</t>
         </is>
       </c>
-      <c r="B3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="n">
-        <v>4500000</v>
-      </c>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>4500000</v>
-      </c>
-      <c r="M3" t="n">
-        <v>4500000</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>4500000</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q3" t="inlineStr"/>
-      <c r="R3" t="inlineStr"/>
-      <c r="S3" t="inlineStr"/>
-      <c r="T3" t="inlineStr"/>
-      <c r="U3" t="n">
-        <v>50000</v>
-      </c>
-      <c r="V3" t="n">
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="n">
+        <v>6000000</v>
+      </c>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>6000000</v>
+      </c>
+      <c r="N4" t="n">
+        <v>6000000</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" t="n">
+        <v>6000000</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0</v>
+      </c>
+      <c r="R4" t="inlineStr"/>
+      <c r="S4" t="inlineStr"/>
+      <c r="T4" t="inlineStr"/>
+      <c r="U4" t="inlineStr"/>
+      <c r="V4" t="n">
+        <v>100000</v>
+      </c>
+      <c r="W4" t="n">
+        <v>0</v>
+      </c>
+      <c r="X4" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>825000</v>
+      </c>
+      <c r="AA4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -678,7 +834,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V8"/>
+  <dimension ref="A1:AA10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -719,82 +875,107 @@
       </c>
       <c r="G1" t="inlineStr">
         <is>
+          <t>Nhóm dịch vụ</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
           <t>Tên dịch vụ</t>
         </is>
       </c>
-      <c r="H1" t="inlineStr">
+      <c r="I1" t="inlineStr">
         <is>
           <t>Sale chính</t>
         </is>
       </c>
-      <c r="I1" t="inlineStr">
+      <c r="J1" t="inlineStr">
         <is>
           <t>Đơn giá gốc</t>
         </is>
       </c>
-      <c r="J1" t="inlineStr">
+      <c r="K1" t="inlineStr">
         <is>
           <t>Sale phụ</t>
         </is>
       </c>
-      <c r="K1" t="inlineStr">
+      <c r="L1" t="inlineStr">
         <is>
           <t>Upsale</t>
         </is>
       </c>
-      <c r="L1" t="inlineStr">
+      <c r="M1" t="inlineStr">
         <is>
           <t>Đơn giá</t>
         </is>
       </c>
-      <c r="M1" t="inlineStr">
+      <c r="N1" t="inlineStr">
         <is>
           <t>Thanh toán lần đầu</t>
         </is>
       </c>
-      <c r="N1" t="inlineStr">
+      <c r="O1" t="inlineStr">
         <is>
           <t>Trả sau</t>
         </is>
       </c>
-      <c r="O1" t="inlineStr">
+      <c r="P1" t="inlineStr">
         <is>
           <t>Đã thanh toán</t>
         </is>
       </c>
-      <c r="P1" t="inlineStr">
+      <c r="Q1" t="inlineStr">
         <is>
           <t>Dư nợ</t>
         </is>
       </c>
-      <c r="Q1" t="inlineStr">
+      <c r="R1" t="inlineStr">
         <is>
           <t>Bác sĩ 1</t>
         </is>
       </c>
-      <c r="R1" t="inlineStr">
+      <c r="S1" t="inlineStr">
         <is>
           <t>Bác sĩ 2</t>
         </is>
       </c>
-      <c r="S1" t="inlineStr">
+      <c r="T1" t="inlineStr">
         <is>
           <t>Phụ phẫu 1</t>
         </is>
       </c>
-      <c r="T1" t="inlineStr">
+      <c r="U1" t="inlineStr">
         <is>
           <t>Phụ phẫu 2</t>
         </is>
       </c>
-      <c r="U1" t="inlineStr">
+      <c r="V1" t="inlineStr">
         <is>
           <t>Công phụ phẫu 1</t>
         </is>
       </c>
-      <c r="V1" t="inlineStr">
+      <c r="W1" t="inlineStr">
         <is>
           <t>Công phụ phẫu 2</t>
+        </is>
+      </c>
+      <c r="X1" t="inlineStr">
+        <is>
+          <t>Tỉ lệ chiết khấu sale chính</t>
+        </is>
+      </c>
+      <c r="Y1" t="inlineStr">
+        <is>
+          <t>Tỉ lệ chiết khấu sale phụ</t>
+        </is>
+      </c>
+      <c r="Z1" t="inlineStr">
+        <is>
+          <t>Chiết khấu sale chính</t>
+        </is>
+      </c>
+      <c r="AA1" t="inlineStr">
+        <is>
+          <t>Chiết khấu sale phụ</t>
         </is>
       </c>
     </row>
@@ -829,59 +1010,76 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
+          <t>Vùng mắt</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
           <t>Cắt mí</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>Lâm Thị Mỹ Hằng</t>
         </is>
       </c>
-      <c r="I2" t="n">
+      <c r="J2" t="n">
         <v>8000000</v>
       </c>
-      <c r="J2" t="n">
-        <v/>
-      </c>
       <c r="K2" t="n">
         <v/>
       </c>
       <c r="L2" t="n">
-        <v>8000000</v>
+        <v/>
       </c>
       <c r="M2" t="n">
         <v>8000000</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>8000000</v>
       </c>
       <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
         <v>8000000</v>
       </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" t="inlineStr">
+      <c r="Q2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" t="inlineStr">
         <is>
           <t>Nguyễn Hoàng Yến Quyên</t>
         </is>
       </c>
-      <c r="R2" t="n">
-        <v/>
-      </c>
-      <c r="S2" t="inlineStr">
+      <c r="S2" t="n">
+        <v/>
+      </c>
+      <c r="T2" t="inlineStr">
         <is>
           <t>Lâm Hoàng Phú</t>
         </is>
       </c>
-      <c r="T2" t="n">
-        <v/>
-      </c>
       <c r="U2" t="n">
         <v/>
       </c>
       <c r="V2" t="n">
-        <v/>
+        <v>50000</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X2" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>1600000</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -915,46 +1113,48 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
+          <t>Các ngoại khoa khác</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
           <t>Tiêm Filler</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>Lâm Thị Mỹ Hằng</t>
         </is>
       </c>
-      <c r="I3" t="n">
+      <c r="J3" t="n">
         <v>500000</v>
       </c>
-      <c r="J3" t="n">
-        <v/>
-      </c>
       <c r="K3" t="n">
         <v/>
       </c>
       <c r="L3" t="n">
-        <v>500000</v>
+        <v/>
       </c>
       <c r="M3" t="n">
         <v>500000</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>500000</v>
       </c>
       <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
         <v>500000</v>
       </c>
-      <c r="P3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q3" t="inlineStr">
+      <c r="Q3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R3" t="inlineStr">
         <is>
           <t>Nguyễn Hoàng Yến Quyên</t>
         </is>
       </c>
-      <c r="R3" t="n">
-        <v/>
-      </c>
       <c r="S3" t="n">
         <v/>
       </c>
@@ -962,9 +1162,24 @@
         <v/>
       </c>
       <c r="U3" t="n">
+        <v/>
+      </c>
+      <c r="V3" t="n">
         <v>50000</v>
       </c>
-      <c r="V3" t="n">
+      <c r="W3" t="n">
+        <v>0</v>
+      </c>
+      <c r="X3" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>50000</v>
+      </c>
+      <c r="AA3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -999,58 +1214,75 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
+          <t>Các ngoại khoa khác</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
           <t>Tiêm Filler</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>Thạch Hoàng Nhân</t>
         </is>
       </c>
-      <c r="I4" t="n">
+      <c r="J4" t="n">
         <v>21500000</v>
       </c>
-      <c r="J4" t="n">
-        <v/>
-      </c>
       <c r="K4" t="n">
         <v/>
       </c>
       <c r="L4" t="n">
-        <v>21500000</v>
+        <v/>
       </c>
       <c r="M4" t="n">
         <v>21500000</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>21500000</v>
       </c>
       <c r="O4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" t="n">
         <v>21500000</v>
       </c>
-      <c r="P4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q4" t="inlineStr">
+      <c r="Q4" t="n">
+        <v>0</v>
+      </c>
+      <c r="R4" t="inlineStr">
         <is>
           <t>Nguyễn Hoàng Yến Quyên</t>
         </is>
       </c>
-      <c r="R4" t="n">
-        <v/>
-      </c>
-      <c r="S4" t="inlineStr">
+      <c r="S4" t="n">
+        <v/>
+      </c>
+      <c r="T4" t="inlineStr">
         <is>
           <t xml:space="preserve">Kha Như Huỳnh </t>
         </is>
       </c>
-      <c r="T4" t="n">
-        <v/>
-      </c>
       <c r="U4" t="n">
+        <v/>
+      </c>
+      <c r="V4" t="n">
         <v>50000</v>
       </c>
-      <c r="V4" t="n">
+      <c r="W4" t="n">
+        <v>0</v>
+      </c>
+      <c r="X4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1080,63 +1312,80 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>KCH</t>
+          <t>Khách cửa hàng</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
+          <t>Vùng mắt</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
           <t>Nâng cung chân mày</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>Đỗ Thị Huyền Trân</t>
         </is>
       </c>
-      <c r="I5" t="n">
+      <c r="J5" t="n">
         <v>3700000</v>
       </c>
-      <c r="J5" t="n">
-        <v/>
-      </c>
       <c r="K5" t="n">
         <v/>
       </c>
       <c r="L5" t="n">
-        <v>3700000</v>
+        <v/>
       </c>
       <c r="M5" t="n">
         <v>3700000</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>3700000</v>
       </c>
       <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
         <v>3700000</v>
       </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="inlineStr">
+      <c r="Q5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" t="inlineStr">
         <is>
           <t>Nguyễn Hoàng Yến Quyên</t>
         </is>
       </c>
-      <c r="R5" t="n">
-        <v/>
-      </c>
-      <c r="S5" t="inlineStr">
+      <c r="S5" t="n">
+        <v/>
+      </c>
+      <c r="T5" t="inlineStr">
         <is>
           <t>Lâm Hoàng Phú</t>
         </is>
       </c>
-      <c r="T5" t="n">
-        <v/>
-      </c>
       <c r="U5" t="n">
+        <v/>
+      </c>
+      <c r="V5" t="n">
         <v>50000</v>
       </c>
-      <c r="V5" t="n">
+      <c r="W5" t="n">
+        <v>0</v>
+      </c>
+      <c r="X5" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>148000</v>
+      </c>
+      <c r="AA5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1171,48 +1420,50 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
+          <t>Vùng mắt</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
           <t>Phun mày</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>CTV Ngoài</t>
         </is>
       </c>
-      <c r="I6" t="n">
+      <c r="J6" t="n">
         <v>500000</v>
       </c>
-      <c r="J6" t="inlineStr">
+      <c r="K6" t="inlineStr">
         <is>
           <t>Đỗ Thị Huyền Trân</t>
         </is>
       </c>
-      <c r="K6" t="n">
+      <c r="L6" t="n">
         <v>1000000</v>
       </c>
-      <c r="L6" t="n">
+      <c r="M6" t="n">
         <v>1500000</v>
       </c>
-      <c r="M6" t="n">
+      <c r="N6" t="n">
         <v>1000000</v>
       </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
       <c r="O6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" t="n">
         <v>1000000</v>
       </c>
-      <c r="P6" t="n">
+      <c r="Q6" t="n">
         <v>500000</v>
       </c>
-      <c r="Q6" t="inlineStr">
+      <c r="R6" t="inlineStr">
         <is>
           <t>Nguyễn Hoàng Yến Quyên</t>
         </is>
       </c>
-      <c r="R6" t="n">
-        <v/>
-      </c>
       <c r="S6" t="n">
         <v/>
       </c>
@@ -1224,6 +1475,21 @@
       </c>
       <c r="V6" t="n">
         <v/>
+      </c>
+      <c r="W6" t="n">
+        <v/>
+      </c>
+      <c r="X6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>20000</v>
       </c>
     </row>
     <row r="7">
@@ -1257,107 +1523,343 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
+          <t>Vùng mắt</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
           <t>Cắt mí</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="I7" t="inlineStr">
         <is>
           <t>Lê Đình Hậu</t>
         </is>
       </c>
-      <c r="I7" t="n">
+      <c r="J7" t="n">
         <v>7000000</v>
       </c>
-      <c r="J7" t="n">
-        <v/>
-      </c>
       <c r="K7" t="n">
         <v/>
       </c>
       <c r="L7" t="n">
+        <v/>
+      </c>
+      <c r="M7" t="n">
         <v>7000000</v>
       </c>
-      <c r="M7" t="n">
+      <c r="N7" t="n">
         <v>4000000</v>
       </c>
-      <c r="N7" t="n">
-        <v>0</v>
-      </c>
       <c r="O7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P7" t="n">
         <v>4000000</v>
       </c>
-      <c r="P7" t="n">
+      <c r="Q7" t="n">
         <v>3000000</v>
       </c>
-      <c r="Q7" t="inlineStr">
+      <c r="R7" t="inlineStr">
         <is>
           <t>Nguyễn Hoàng Yến Quyên</t>
         </is>
       </c>
-      <c r="R7" t="n">
-        <v/>
-      </c>
-      <c r="S7" t="inlineStr">
+      <c r="S7" t="n">
+        <v/>
+      </c>
+      <c r="T7" t="inlineStr">
         <is>
           <t xml:space="preserve">Kha Như Huỳnh </t>
         </is>
       </c>
-      <c r="T7" t="n">
-        <v/>
-      </c>
       <c r="U7" t="n">
         <v/>
       </c>
       <c r="V7" t="n">
-        <v/>
+        <v>50000</v>
+      </c>
+      <c r="W7" t="n">
+        <v>0</v>
+      </c>
+      <c r="X7" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>600000</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>530</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>07-08-2024</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>LONG XUYÊN</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Võ thị nga</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Khách cũ</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Vùng mắt</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Cắt mí</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>Nguyễn Phúc Nam</t>
+        </is>
+      </c>
+      <c r="J8" t="n">
+        <v>4000000</v>
+      </c>
+      <c r="K8" t="n">
+        <v/>
+      </c>
+      <c r="L8" t="n">
+        <v/>
+      </c>
+      <c r="M8" t="n">
+        <v>4000000</v>
+      </c>
+      <c r="N8" t="n">
+        <v>3000000</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>3000000</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="R8" t="inlineStr">
+        <is>
+          <t>Nguyễn Hoàng Yến Quyên</t>
+        </is>
+      </c>
+      <c r="S8" t="n">
+        <v/>
+      </c>
+      <c r="T8" t="inlineStr">
+        <is>
+          <t>Đào Vương Anh</t>
+        </is>
+      </c>
+      <c r="U8" t="n">
+        <v/>
+      </c>
+      <c r="V8" t="n">
+        <v>50000</v>
+      </c>
+      <c r="W8" t="n">
+        <v>0</v>
+      </c>
+      <c r="X8" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>300000</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>535</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>07-09-2024</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Phan Minh Nguyệt</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>CTV</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Vùng mắt</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Phun mày</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>CTV Ngoài</t>
+        </is>
+      </c>
+      <c r="J9" t="n">
+        <v>500000</v>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>Đỗ Thị Huyền Trân</t>
+        </is>
+      </c>
+      <c r="L9" t="n">
+        <v>400000</v>
+      </c>
+      <c r="M9" t="n">
+        <v>900000</v>
+      </c>
+      <c r="N9" t="n">
+        <v>900000</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
+        <v>900000</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0</v>
+      </c>
+      <c r="R9" t="inlineStr">
+        <is>
+          <t>Nguyễn Hoàng Yến Quyên</t>
+        </is>
+      </c>
+      <c r="S9" t="n">
+        <v/>
+      </c>
+      <c r="T9" t="n">
+        <v/>
+      </c>
+      <c r="U9" t="n">
+        <v/>
+      </c>
+      <c r="V9" t="n">
+        <v/>
+      </c>
+      <c r="W9" t="n">
+        <v/>
+      </c>
+      <c r="X9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>18000</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
           <t>Tổng</t>
         </is>
       </c>
-      <c r="B8" t="n">
-        <v>6</v>
-      </c>
-      <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr"/>
-      <c r="G8" t="inlineStr"/>
-      <c r="H8" t="inlineStr"/>
-      <c r="I8" t="n">
-        <v>41200000</v>
-      </c>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="n">
-        <v>1000000</v>
-      </c>
-      <c r="L8" t="n">
-        <v>42200000</v>
-      </c>
-      <c r="M8" t="n">
-        <v>38700000</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>38700000</v>
-      </c>
-      <c r="P8" t="n">
-        <v>3500000</v>
-      </c>
-      <c r="Q8" t="inlineStr"/>
-      <c r="R8" t="inlineStr"/>
-      <c r="S8" t="inlineStr"/>
-      <c r="T8" t="inlineStr"/>
-      <c r="U8" t="n">
-        <v>150000</v>
-      </c>
-      <c r="V8" t="n">
-        <v>0</v>
+      <c r="B10" t="n">
+        <v>8</v>
+      </c>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr"/>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="n">
+        <v>45700000</v>
+      </c>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>1400000</v>
+      </c>
+      <c r="M10" t="n">
+        <v>47100000</v>
+      </c>
+      <c r="N10" t="n">
+        <v>42600000</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" t="n">
+        <v>42600000</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>4500000</v>
+      </c>
+      <c r="R10" t="inlineStr"/>
+      <c r="S10" t="inlineStr"/>
+      <c r="T10" t="inlineStr"/>
+      <c r="U10" t="inlineStr"/>
+      <c r="V10" t="n">
+        <v>300000</v>
+      </c>
+      <c r="W10" t="n">
+        <v>0</v>
+      </c>
+      <c r="X10" t="n">
+        <v>0.5900000000000001</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>2698000</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>38000</v>
       </c>
     </row>
   </sheetData>
@@ -1371,14 +1873,255 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:B24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Danh mục</t>
+        </is>
+      </c>
+      <c r="B1" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Ngày công</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>13.5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Phụ cấp</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>472500</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Lương cơ bản tại CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Chiết khấu sale chính tại CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>825000</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Chiết khấu sale phụ tại CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Đơn 1 bác sĩ tại CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>1410000</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Đơn 2 bác sĩ tại CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Công phụ phẫu 1 tại CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Công phụ phẫu 2 tại CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Lương cơ bản tại LONG XUYÊN</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Chiết khấu sale chính tại LONG XUYÊN</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Chiết khấu sale phụ tại LONG XUYÊN</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Đơn 1 bác sĩ tại LONG XUYÊN</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>300000</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Đơn 2 bác sĩ tại LONG XUYÊN</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Công phụ phẫu 1 tại LONG XUYÊN</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Công phụ phẫu 2 tại LONG XUYÊN</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Lương cơ bản tại SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Chiết khấu sale chính tại SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Chiết khấu sale phụ tại SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Đơn 1 bác sĩ tại SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>2550000</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Đơn 2 bác sĩ tại SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Công phụ phẫu 1 tại SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Công phụ phẫu 2 tại SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/report_ca_nhan/NV-5 Nguyễn Hoàng Yến Quyên 7-2024.xlsx
+++ b/report_ca_nhan/NV-5 Nguyễn Hoàng Yến Quyên 7-2024.xlsx
@@ -8,8 +8,11 @@
   </bookViews>
   <sheets>
     <sheet name="Đơn sale chính" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Đơn 1 bác sĩ" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Lương" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Đơn sale phụ" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Đơn 1 bác sĩ" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Đơn phụ phẫu 2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Đơn thu nợ" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Lương" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -591,7 +594,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Các ngoại khoa khác</t>
+          <t>Tiêm</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -649,13 +652,13 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0.15</v>
+        <v>0.1</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
       </c>
       <c r="Z2" t="n">
-        <v>675000</v>
+        <v>450000</v>
       </c>
       <c r="AA2" t="n">
         <v>0</v>
@@ -692,7 +695,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Các ngoại khoa khác</t>
+          <t>Tiêm</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -811,13 +814,13 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
       </c>
       <c r="Z4" t="n">
-        <v>825000</v>
+        <v>600000</v>
       </c>
       <c r="AA4" t="n">
         <v>0</v>
@@ -834,7 +837,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA10"/>
+  <dimension ref="A1:AA4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -986,11 +989,11 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>508</v>
+        <v>547</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>07-01-2024</t>
+          <t>07-14-2024</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -1000,52 +1003,54 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Đỗ Thị Ngọc Vàng</t>
+          <t>Nguyễn Phương Thuý</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Cá nhân</t>
+          <t>CTV</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Vùng mắt</t>
+          <t>Phun xăm</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Cắt mí</t>
+          <t>Phun mày</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>Lâm Thị Mỹ Hằng</t>
+          <t>CTV Ngoài</t>
         </is>
       </c>
       <c r="J2" t="n">
-        <v>8000000</v>
-      </c>
-      <c r="K2" t="n">
-        <v/>
+        <v>500000</v>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>Nguyễn Hoàng Yến Quyên</t>
+        </is>
       </c>
       <c r="L2" t="n">
-        <v/>
+        <v>1300000</v>
       </c>
       <c r="M2" t="n">
-        <v>8000000</v>
+        <v>1800000</v>
       </c>
       <c r="N2" t="n">
-        <v>8000000</v>
+        <v>1500000</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>8000000</v>
+        <v>1500000</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>300000</v>
       </c>
       <c r="R2" t="inlineStr">
         <is>
@@ -1055,31 +1060,29 @@
       <c r="S2" t="n">
         <v/>
       </c>
-      <c r="T2" t="inlineStr">
-        <is>
-          <t>Lâm Hoàng Phú</t>
-        </is>
+      <c r="T2" t="n">
+        <v/>
       </c>
       <c r="U2" t="n">
         <v/>
       </c>
       <c r="V2" t="n">
-        <v>50000</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="Z2" t="n">
-        <v>1600000</v>
+        <v>0</v>
       </c>
       <c r="AA2" t="n">
-        <v>0</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="3">
@@ -1089,11 +1092,11 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>510</v>
+        <v>550</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>07-01-2024</t>
+          <t>07-14-2024</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -1103,49 +1106,51 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Nguyễn Văn Đình Quân</t>
+          <t>Lê Thị Hiền</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Khách cũ</t>
+          <t>CTV</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Các ngoại khoa khác</t>
+          <t>Phun xăm</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Tiêm Filler</t>
+          <t>Phun mày</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>Lâm Thị Mỹ Hằng</t>
+          <t>CTV Ngoài</t>
         </is>
       </c>
       <c r="J3" t="n">
         <v>500000</v>
       </c>
-      <c r="K3" t="n">
-        <v/>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>Nguyễn Hoàng Yến Quyên</t>
+        </is>
       </c>
       <c r="L3" t="n">
-        <v/>
+        <v>1000000</v>
       </c>
       <c r="M3" t="n">
-        <v>500000</v>
+        <v>1500000</v>
       </c>
       <c r="N3" t="n">
-        <v>500000</v>
+        <v>1500000</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>500000</v>
+        <v>1500000</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -1165,110 +1170,68 @@
         <v/>
       </c>
       <c r="V3" t="n">
-        <v>50000</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="Z3" t="n">
-        <v>50000</v>
+        <v>0</v>
       </c>
       <c r="AA3" t="n">
-        <v>0</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>HD-LUXURY</t>
+          <t>Tổng</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>519</v>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>07-05-2024</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>SÓC TRĂNG</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>na quy</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>CTV</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>Các ngoại khoa khác</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>Tiêm Filler</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>Thạch Hoàng Nhân</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="n">
-        <v>21500000</v>
-      </c>
-      <c r="K4" t="n">
-        <v/>
-      </c>
+        <v>1000000</v>
+      </c>
+      <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
-        <v/>
+        <v>2300000</v>
       </c>
       <c r="M4" t="n">
-        <v>21500000</v>
+        <v>3300000</v>
       </c>
       <c r="N4" t="n">
-        <v>21500000</v>
+        <v>3000000</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>21500000</v>
+        <v>3000000</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
-      </c>
-      <c r="R4" t="inlineStr">
-        <is>
-          <t>Nguyễn Hoàng Yến Quyên</t>
-        </is>
-      </c>
-      <c r="S4" t="n">
-        <v/>
-      </c>
-      <c r="T4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Kha Như Huỳnh </t>
-        </is>
-      </c>
-      <c r="U4" t="n">
-        <v/>
-      </c>
+        <v>300000</v>
+      </c>
+      <c r="R4" t="inlineStr"/>
+      <c r="S4" t="inlineStr"/>
+      <c r="T4" t="inlineStr"/>
+      <c r="U4" t="inlineStr"/>
       <c r="V4" t="n">
-        <v>50000</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -1277,589 +1240,13 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="Z4" t="n">
         <v>0</v>
       </c>
       <c r="AA4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>HD-LUXURY</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>525</v>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>07-06-2024</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>CẦN THƠ</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Đặng Thị Huệ</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Khách cửa hàng</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>Vùng mắt</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>Nâng cung chân mày</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>Đỗ Thị Huyền Trân</t>
-        </is>
-      </c>
-      <c r="J5" t="n">
-        <v>3700000</v>
-      </c>
-      <c r="K5" t="n">
-        <v/>
-      </c>
-      <c r="L5" t="n">
-        <v/>
-      </c>
-      <c r="M5" t="n">
-        <v>3700000</v>
-      </c>
-      <c r="N5" t="n">
-        <v>3700000</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>3700000</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>0</v>
-      </c>
-      <c r="R5" t="inlineStr">
-        <is>
-          <t>Nguyễn Hoàng Yến Quyên</t>
-        </is>
-      </c>
-      <c r="S5" t="n">
-        <v/>
-      </c>
-      <c r="T5" t="inlineStr">
-        <is>
-          <t>Lâm Hoàng Phú</t>
-        </is>
-      </c>
-      <c r="U5" t="n">
-        <v/>
-      </c>
-      <c r="V5" t="n">
-        <v>50000</v>
-      </c>
-      <c r="W5" t="n">
-        <v>0</v>
-      </c>
-      <c r="X5" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z5" t="n">
-        <v>148000</v>
-      </c>
-      <c r="AA5" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>HD-LUXURY</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>526</v>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>07-06-2024</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>CẦN THƠ</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Hoàng Thị Thu Vân</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>CTV</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>Vùng mắt</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>Phun mày</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>CTV Ngoài</t>
-        </is>
-      </c>
-      <c r="J6" t="n">
-        <v>500000</v>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>Đỗ Thị Huyền Trân</t>
-        </is>
-      </c>
-      <c r="L6" t="n">
-        <v>1000000</v>
-      </c>
-      <c r="M6" t="n">
-        <v>1500000</v>
-      </c>
-      <c r="N6" t="n">
-        <v>1000000</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0</v>
-      </c>
-      <c r="P6" t="n">
-        <v>1000000</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>500000</v>
-      </c>
-      <c r="R6" t="inlineStr">
-        <is>
-          <t>Nguyễn Hoàng Yến Quyên</t>
-        </is>
-      </c>
-      <c r="S6" t="n">
-        <v/>
-      </c>
-      <c r="T6" t="n">
-        <v/>
-      </c>
-      <c r="U6" t="n">
-        <v/>
-      </c>
-      <c r="V6" t="n">
-        <v/>
-      </c>
-      <c r="W6" t="n">
-        <v/>
-      </c>
-      <c r="X6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="Z6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA6" t="n">
-        <v>20000</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>HD-LUXURY</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>529</v>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>07-07-2024</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>SÓC TRĂNG</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>nguyễn thị hân</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Cá nhân</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>Vùng mắt</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>Cắt mí</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>Lê Đình Hậu</t>
-        </is>
-      </c>
-      <c r="J7" t="n">
-        <v>7000000</v>
-      </c>
-      <c r="K7" t="n">
-        <v/>
-      </c>
-      <c r="L7" t="n">
-        <v/>
-      </c>
-      <c r="M7" t="n">
-        <v>7000000</v>
-      </c>
-      <c r="N7" t="n">
-        <v>4000000</v>
-      </c>
-      <c r="O7" t="n">
-        <v>0</v>
-      </c>
-      <c r="P7" t="n">
-        <v>4000000</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>3000000</v>
-      </c>
-      <c r="R7" t="inlineStr">
-        <is>
-          <t>Nguyễn Hoàng Yến Quyên</t>
-        </is>
-      </c>
-      <c r="S7" t="n">
-        <v/>
-      </c>
-      <c r="T7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Kha Như Huỳnh </t>
-        </is>
-      </c>
-      <c r="U7" t="n">
-        <v/>
-      </c>
-      <c r="V7" t="n">
-        <v>50000</v>
-      </c>
-      <c r="W7" t="n">
-        <v>0</v>
-      </c>
-      <c r="X7" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="Y7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z7" t="n">
-        <v>600000</v>
-      </c>
-      <c r="AA7" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>HD-LUXURY</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>530</v>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>07-08-2024</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>LONG XUYÊN</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>Võ thị nga</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>Khách cũ</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>Vùng mắt</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>Cắt mí</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>Nguyễn Phúc Nam</t>
-        </is>
-      </c>
-      <c r="J8" t="n">
-        <v>4000000</v>
-      </c>
-      <c r="K8" t="n">
-        <v/>
-      </c>
-      <c r="L8" t="n">
-        <v/>
-      </c>
-      <c r="M8" t="n">
-        <v>4000000</v>
-      </c>
-      <c r="N8" t="n">
-        <v>3000000</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" t="n">
-        <v>3000000</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>1000000</v>
-      </c>
-      <c r="R8" t="inlineStr">
-        <is>
-          <t>Nguyễn Hoàng Yến Quyên</t>
-        </is>
-      </c>
-      <c r="S8" t="n">
-        <v/>
-      </c>
-      <c r="T8" t="inlineStr">
-        <is>
-          <t>Đào Vương Anh</t>
-        </is>
-      </c>
-      <c r="U8" t="n">
-        <v/>
-      </c>
-      <c r="V8" t="n">
-        <v>50000</v>
-      </c>
-      <c r="W8" t="n">
-        <v>0</v>
-      </c>
-      <c r="X8" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z8" t="n">
-        <v>300000</v>
-      </c>
-      <c r="AA8" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>HD-LUXURY</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>535</v>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>07-09-2024</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>CẦN THƠ</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>Phan Minh Nguyệt</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>CTV</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>Vùng mắt</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>Phun mày</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>CTV Ngoài</t>
-        </is>
-      </c>
-      <c r="J9" t="n">
-        <v>500000</v>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>Đỗ Thị Huyền Trân</t>
-        </is>
-      </c>
-      <c r="L9" t="n">
-        <v>400000</v>
-      </c>
-      <c r="M9" t="n">
-        <v>900000</v>
-      </c>
-      <c r="N9" t="n">
-        <v>900000</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0</v>
-      </c>
-      <c r="P9" t="n">
-        <v>900000</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>0</v>
-      </c>
-      <c r="R9" t="inlineStr">
-        <is>
-          <t>Nguyễn Hoàng Yến Quyên</t>
-        </is>
-      </c>
-      <c r="S9" t="n">
-        <v/>
-      </c>
-      <c r="T9" t="n">
-        <v/>
-      </c>
-      <c r="U9" t="n">
-        <v/>
-      </c>
-      <c r="V9" t="n">
-        <v/>
-      </c>
-      <c r="W9" t="n">
-        <v/>
-      </c>
-      <c r="X9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y9" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="Z9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA9" t="n">
-        <v>18000</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Tổng</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>8</v>
-      </c>
-      <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr"/>
-      <c r="G10" t="inlineStr"/>
-      <c r="H10" t="inlineStr"/>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="n">
-        <v>45700000</v>
-      </c>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="n">
-        <v>1400000</v>
-      </c>
-      <c r="M10" t="n">
-        <v>47100000</v>
-      </c>
-      <c r="N10" t="n">
-        <v>42600000</v>
-      </c>
-      <c r="O10" t="n">
-        <v>0</v>
-      </c>
-      <c r="P10" t="n">
-        <v>42600000</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>4500000</v>
-      </c>
-      <c r="R10" t="inlineStr"/>
-      <c r="S10" t="inlineStr"/>
-      <c r="T10" t="inlineStr"/>
-      <c r="U10" t="inlineStr"/>
-      <c r="V10" t="n">
-        <v>300000</v>
-      </c>
-      <c r="W10" t="n">
-        <v>0</v>
-      </c>
-      <c r="X10" t="n">
-        <v>0.5900000000000001</v>
-      </c>
-      <c r="Y10" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="Z10" t="n">
-        <v>2698000</v>
-      </c>
-      <c r="AA10" t="n">
-        <v>38000</v>
+        <v>60000</v>
       </c>
     </row>
   </sheetData>
@@ -1873,7 +1260,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B24"/>
+  <dimension ref="A1:AA20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1884,6 +1271,2714 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
+          <t>Tiền tố</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Mã dịch vụ</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Ngày thực hiện</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Cơ sở</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Khách hàng</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Nguồn khách</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>Nhóm dịch vụ</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>Tên dịch vụ</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>Sale chính</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>Đơn giá gốc</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>Sale phụ</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>Upsale</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>Đơn giá</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>Thanh toán lần đầu</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>Trả sau</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>Đã thanh toán</t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
+        <is>
+          <t>Dư nợ</t>
+        </is>
+      </c>
+      <c r="R1" t="inlineStr">
+        <is>
+          <t>Bác sĩ 1</t>
+        </is>
+      </c>
+      <c r="S1" t="inlineStr">
+        <is>
+          <t>Bác sĩ 2</t>
+        </is>
+      </c>
+      <c r="T1" t="inlineStr">
+        <is>
+          <t>Phụ phẫu 1</t>
+        </is>
+      </c>
+      <c r="U1" t="inlineStr">
+        <is>
+          <t>Phụ phẫu 2</t>
+        </is>
+      </c>
+      <c r="V1" t="inlineStr">
+        <is>
+          <t>Công phụ phẫu 1</t>
+        </is>
+      </c>
+      <c r="W1" t="inlineStr">
+        <is>
+          <t>Công phụ phẫu 2</t>
+        </is>
+      </c>
+      <c r="X1" t="inlineStr">
+        <is>
+          <t>Tỉ lệ chiết khấu sale chính</t>
+        </is>
+      </c>
+      <c r="Y1" t="inlineStr">
+        <is>
+          <t>Tỉ lệ chiết khấu sale phụ</t>
+        </is>
+      </c>
+      <c r="Z1" t="inlineStr">
+        <is>
+          <t>Chiết khấu sale chính</t>
+        </is>
+      </c>
+      <c r="AA1" t="inlineStr">
+        <is>
+          <t>Chiết khấu sale phụ</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>508</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>07-01-2024</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Đỗ Thị Ngọc Vàng</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Cá nhân</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Tiểu phẫu</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Cắt mí</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>Lâm Thị Mỹ Hằng</t>
+        </is>
+      </c>
+      <c r="J2" t="n">
+        <v>8000000</v>
+      </c>
+      <c r="K2" t="n">
+        <v/>
+      </c>
+      <c r="L2" t="n">
+        <v/>
+      </c>
+      <c r="M2" t="n">
+        <v>8000000</v>
+      </c>
+      <c r="N2" t="n">
+        <v>8000000</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>8000000</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>Nguyễn Hoàng Yến Quyên</t>
+        </is>
+      </c>
+      <c r="S2" t="n">
+        <v/>
+      </c>
+      <c r="T2" t="inlineStr">
+        <is>
+          <t>Lâm Hoàng Phú</t>
+        </is>
+      </c>
+      <c r="U2" t="n">
+        <v/>
+      </c>
+      <c r="V2" t="n">
+        <v>50000</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X2" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>1040000</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>510</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>07-01-2024</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Nguyễn Văn Đình Quân</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Khách cũ</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Tiêm</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Tiêm Filler</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>Lâm Thị Mỹ Hằng</t>
+        </is>
+      </c>
+      <c r="J3" t="n">
+        <v>500000</v>
+      </c>
+      <c r="K3" t="n">
+        <v/>
+      </c>
+      <c r="L3" t="n">
+        <v/>
+      </c>
+      <c r="M3" t="n">
+        <v>500000</v>
+      </c>
+      <c r="N3" t="n">
+        <v>500000</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
+        <v>500000</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R3" t="inlineStr">
+        <is>
+          <t>Nguyễn Hoàng Yến Quyên</t>
+        </is>
+      </c>
+      <c r="S3" t="n">
+        <v/>
+      </c>
+      <c r="T3" t="n">
+        <v/>
+      </c>
+      <c r="U3" t="n">
+        <v/>
+      </c>
+      <c r="V3" t="n">
+        <v>50000</v>
+      </c>
+      <c r="W3" t="n">
+        <v>0</v>
+      </c>
+      <c r="X3" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>50000</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>519</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>07-05-2024</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>na quy</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>CTV</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Tiêm</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Tiêm Filler</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>Thạch Hoàng Nhân</t>
+        </is>
+      </c>
+      <c r="J4" t="n">
+        <v>21500000</v>
+      </c>
+      <c r="K4" t="n">
+        <v/>
+      </c>
+      <c r="L4" t="n">
+        <v/>
+      </c>
+      <c r="M4" t="n">
+        <v>21500000</v>
+      </c>
+      <c r="N4" t="n">
+        <v>21500000</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" t="n">
+        <v>21500000</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0</v>
+      </c>
+      <c r="R4" t="inlineStr">
+        <is>
+          <t>Nguyễn Hoàng Yến Quyên</t>
+        </is>
+      </c>
+      <c r="S4" t="n">
+        <v/>
+      </c>
+      <c r="T4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Kha Như Huỳnh </t>
+        </is>
+      </c>
+      <c r="U4" t="n">
+        <v/>
+      </c>
+      <c r="V4" t="n">
+        <v>50000</v>
+      </c>
+      <c r="W4" t="n">
+        <v>0</v>
+      </c>
+      <c r="X4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>525</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>07-06-2024</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Đặng Thị Huệ</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Khách cửa hàng</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Tiểu phẫu</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Nâng cung chân mày</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>Đỗ Thị Huyền Trân</t>
+        </is>
+      </c>
+      <c r="J5" t="n">
+        <v>3700000</v>
+      </c>
+      <c r="K5" t="n">
+        <v/>
+      </c>
+      <c r="L5" t="n">
+        <v/>
+      </c>
+      <c r="M5" t="n">
+        <v>3700000</v>
+      </c>
+      <c r="N5" t="n">
+        <v>3700000</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>3700000</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" t="inlineStr">
+        <is>
+          <t>Nguyễn Hoàng Yến Quyên</t>
+        </is>
+      </c>
+      <c r="S5" t="n">
+        <v/>
+      </c>
+      <c r="T5" t="inlineStr">
+        <is>
+          <t>Lâm Hoàng Phú</t>
+        </is>
+      </c>
+      <c r="U5" t="n">
+        <v/>
+      </c>
+      <c r="V5" t="n">
+        <v>50000</v>
+      </c>
+      <c r="W5" t="n">
+        <v>0</v>
+      </c>
+      <c r="X5" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>148000</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>526</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>07-06-2024</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Hoàng Thị Thu Vân</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>CTV</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Phun xăm</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Phun mày</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>CTV Ngoài</t>
+        </is>
+      </c>
+      <c r="J6" t="n">
+        <v>500000</v>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>Đỗ Thị Huyền Trân</t>
+        </is>
+      </c>
+      <c r="L6" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1500000</v>
+      </c>
+      <c r="N6" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="O6" t="n">
+        <v>500000</v>
+      </c>
+      <c r="P6" t="n">
+        <v>1500000</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0</v>
+      </c>
+      <c r="R6" t="inlineStr">
+        <is>
+          <t>Nguyễn Hoàng Yến Quyên</t>
+        </is>
+      </c>
+      <c r="S6" t="n">
+        <v/>
+      </c>
+      <c r="T6" t="n">
+        <v/>
+      </c>
+      <c r="U6" t="n">
+        <v/>
+      </c>
+      <c r="V6" t="n">
+        <v/>
+      </c>
+      <c r="W6" t="n">
+        <v/>
+      </c>
+      <c r="X6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>529</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>07-07-2024</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>nguyễn thị hân</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Cá nhân</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Tiểu phẫu</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Cắt mí</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>Lê Đình Hậu</t>
+        </is>
+      </c>
+      <c r="J7" t="n">
+        <v>7000000</v>
+      </c>
+      <c r="K7" t="n">
+        <v/>
+      </c>
+      <c r="L7" t="n">
+        <v/>
+      </c>
+      <c r="M7" t="n">
+        <v>7000000</v>
+      </c>
+      <c r="N7" t="n">
+        <v>4000000</v>
+      </c>
+      <c r="O7" t="n">
+        <v>3000000</v>
+      </c>
+      <c r="P7" t="n">
+        <v>7000000</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>0</v>
+      </c>
+      <c r="R7" t="inlineStr">
+        <is>
+          <t>Nguyễn Hoàng Yến Quyên</t>
+        </is>
+      </c>
+      <c r="S7" t="n">
+        <v/>
+      </c>
+      <c r="T7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Kha Như Huỳnh </t>
+        </is>
+      </c>
+      <c r="U7" t="n">
+        <v/>
+      </c>
+      <c r="V7" t="n">
+        <v>50000</v>
+      </c>
+      <c r="W7" t="n">
+        <v>0</v>
+      </c>
+      <c r="X7" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>910000</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>530</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>07-08-2024</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>LONG XUYÊN</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Võ thị nga</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Khách cũ</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Tiểu phẫu</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Cắt mí</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>Nguyễn Phúc Nam</t>
+        </is>
+      </c>
+      <c r="J8" t="n">
+        <v>4000000</v>
+      </c>
+      <c r="K8" t="n">
+        <v/>
+      </c>
+      <c r="L8" t="n">
+        <v/>
+      </c>
+      <c r="M8" t="n">
+        <v>4000000</v>
+      </c>
+      <c r="N8" t="n">
+        <v>3000000</v>
+      </c>
+      <c r="O8" t="n">
+        <v>500000</v>
+      </c>
+      <c r="P8" t="n">
+        <v>3500000</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>500000</v>
+      </c>
+      <c r="R8" t="inlineStr">
+        <is>
+          <t>Nguyễn Hoàng Yến Quyên</t>
+        </is>
+      </c>
+      <c r="S8" t="n">
+        <v/>
+      </c>
+      <c r="T8" t="inlineStr">
+        <is>
+          <t>Đào Vương Anh</t>
+        </is>
+      </c>
+      <c r="U8" t="n">
+        <v/>
+      </c>
+      <c r="V8" t="n">
+        <v>50000</v>
+      </c>
+      <c r="W8" t="n">
+        <v>0</v>
+      </c>
+      <c r="X8" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>350000</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>535</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>07-09-2024</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Phan Minh Nguyệt</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>CTV</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Phun xăm</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Phun mày</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>CTV Ngoài</t>
+        </is>
+      </c>
+      <c r="J9" t="n">
+        <v>500000</v>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>Đỗ Thị Huyền Trân</t>
+        </is>
+      </c>
+      <c r="L9" t="n">
+        <v>400000</v>
+      </c>
+      <c r="M9" t="n">
+        <v>900000</v>
+      </c>
+      <c r="N9" t="n">
+        <v>900000</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
+        <v>900000</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0</v>
+      </c>
+      <c r="R9" t="inlineStr">
+        <is>
+          <t>Nguyễn Hoàng Yến Quyên</t>
+        </is>
+      </c>
+      <c r="S9" t="n">
+        <v/>
+      </c>
+      <c r="T9" t="n">
+        <v/>
+      </c>
+      <c r="U9" t="n">
+        <v/>
+      </c>
+      <c r="V9" t="n">
+        <v/>
+      </c>
+      <c r="W9" t="n">
+        <v/>
+      </c>
+      <c r="X9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>18000</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>545</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>07-12-2024</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Phạm Thị Tuyết Nhi</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Khách cũ</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Tiêm</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Tiêm Filler</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>Đỗ Thị Huyền Trân</t>
+        </is>
+      </c>
+      <c r="J10" t="n">
+        <v>2800000</v>
+      </c>
+      <c r="K10" t="n">
+        <v/>
+      </c>
+      <c r="L10" t="n">
+        <v/>
+      </c>
+      <c r="M10" t="n">
+        <v>2800000</v>
+      </c>
+      <c r="N10" t="n">
+        <v>2800000</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" t="n">
+        <v>2800000</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>0</v>
+      </c>
+      <c r="R10" t="inlineStr">
+        <is>
+          <t>Nguyễn Hoàng Yến Quyên</t>
+        </is>
+      </c>
+      <c r="S10" t="n">
+        <v/>
+      </c>
+      <c r="T10" t="n">
+        <v/>
+      </c>
+      <c r="U10" t="n">
+        <v/>
+      </c>
+      <c r="V10" t="n">
+        <v>50000</v>
+      </c>
+      <c r="W10" t="n">
+        <v>0</v>
+      </c>
+      <c r="X10" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>280000</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>546</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>07-12-2024</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Huỳnh Thị Kim Trâm</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>CTV</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Phun xăm</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Điêu khắc mày</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>CTV Ngoài</t>
+        </is>
+      </c>
+      <c r="J11" t="n">
+        <v>1500000</v>
+      </c>
+      <c r="K11" t="n">
+        <v/>
+      </c>
+      <c r="L11" t="n">
+        <v/>
+      </c>
+      <c r="M11" t="n">
+        <v>1500000</v>
+      </c>
+      <c r="N11" t="n">
+        <v>1500000</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" t="n">
+        <v>1500000</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>0</v>
+      </c>
+      <c r="R11" t="inlineStr">
+        <is>
+          <t>Nguyễn Hoàng Yến Quyên</t>
+        </is>
+      </c>
+      <c r="S11" t="n">
+        <v/>
+      </c>
+      <c r="T11" t="n">
+        <v/>
+      </c>
+      <c r="U11" t="n">
+        <v/>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="n">
+        <v>0</v>
+      </c>
+      <c r="X11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>547</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>07-14-2024</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Nguyễn Phương Thuý</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>CTV</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Phun xăm</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Phun mày</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>CTV Ngoài</t>
+        </is>
+      </c>
+      <c r="J12" t="n">
+        <v>500000</v>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>Nguyễn Hoàng Yến Quyên</t>
+        </is>
+      </c>
+      <c r="L12" t="n">
+        <v>1300000</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1800000</v>
+      </c>
+      <c r="N12" t="n">
+        <v>1500000</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0</v>
+      </c>
+      <c r="P12" t="n">
+        <v>1500000</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>300000</v>
+      </c>
+      <c r="R12" t="inlineStr">
+        <is>
+          <t>Nguyễn Hoàng Yến Quyên</t>
+        </is>
+      </c>
+      <c r="S12" t="n">
+        <v/>
+      </c>
+      <c r="T12" t="n">
+        <v/>
+      </c>
+      <c r="U12" t="n">
+        <v/>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="n">
+        <v>0</v>
+      </c>
+      <c r="X12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>549</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>07-14-2024</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Nguyễn Ngọc Nhiên</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Cá nhân</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Tiêm</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Tiêm Filler</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>Lâm Thị Mỹ Hằng</t>
+        </is>
+      </c>
+      <c r="J13" t="n">
+        <v>1200000</v>
+      </c>
+      <c r="K13" t="n">
+        <v/>
+      </c>
+      <c r="L13" t="n">
+        <v/>
+      </c>
+      <c r="M13" t="n">
+        <v>1200000</v>
+      </c>
+      <c r="N13" t="n">
+        <v>1200000</v>
+      </c>
+      <c r="O13" t="n">
+        <v>0</v>
+      </c>
+      <c r="P13" t="n">
+        <v>1200000</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>0</v>
+      </c>
+      <c r="R13" t="inlineStr">
+        <is>
+          <t>Nguyễn Hoàng Yến Quyên</t>
+        </is>
+      </c>
+      <c r="S13" t="n">
+        <v/>
+      </c>
+      <c r="T13" t="n">
+        <v/>
+      </c>
+      <c r="U13" t="n">
+        <v/>
+      </c>
+      <c r="V13" t="n">
+        <v>50000</v>
+      </c>
+      <c r="W13" t="n">
+        <v>0</v>
+      </c>
+      <c r="X13" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>120000</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>550</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>07-14-2024</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Lê Thị Hiền</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>CTV</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Phun xăm</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Phun mày</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>CTV Ngoài</t>
+        </is>
+      </c>
+      <c r="J14" t="n">
+        <v>500000</v>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>Nguyễn Hoàng Yến Quyên</t>
+        </is>
+      </c>
+      <c r="L14" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="M14" t="n">
+        <v>1500000</v>
+      </c>
+      <c r="N14" t="n">
+        <v>1500000</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0</v>
+      </c>
+      <c r="P14" t="n">
+        <v>1500000</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>0</v>
+      </c>
+      <c r="R14" t="inlineStr">
+        <is>
+          <t>Nguyễn Hoàng Yến Quyên</t>
+        </is>
+      </c>
+      <c r="S14" t="n">
+        <v/>
+      </c>
+      <c r="T14" t="n">
+        <v/>
+      </c>
+      <c r="U14" t="n">
+        <v/>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="n">
+        <v>0</v>
+      </c>
+      <c r="X14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>556</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>07-16-2024</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Nguyễn Bảo Hân</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Khách cũ</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Tiêm</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Tiêm botox</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>Đỗ Thị Huyền Trân</t>
+        </is>
+      </c>
+      <c r="J15" t="n">
+        <v>1300000</v>
+      </c>
+      <c r="K15" t="n">
+        <v/>
+      </c>
+      <c r="L15" t="n">
+        <v/>
+      </c>
+      <c r="M15" t="n">
+        <v>1300000</v>
+      </c>
+      <c r="N15" t="n">
+        <v>1300000</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P15" t="n">
+        <v>1300000</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>0</v>
+      </c>
+      <c r="R15" t="inlineStr">
+        <is>
+          <t>Nguyễn Hoàng Yến Quyên</t>
+        </is>
+      </c>
+      <c r="S15" t="n">
+        <v/>
+      </c>
+      <c r="T15" t="n">
+        <v/>
+      </c>
+      <c r="U15" t="n">
+        <v/>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="n">
+        <v>0</v>
+      </c>
+      <c r="X15" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>130000</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>558</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>07-16-2024</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Lê Thị Kiều</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Cá nhân</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Tiểu phẫu</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Cắt mí</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>Lê Đình Hậu</t>
+        </is>
+      </c>
+      <c r="J16" t="n">
+        <v>10000000</v>
+      </c>
+      <c r="K16" t="n">
+        <v/>
+      </c>
+      <c r="L16" t="n">
+        <v/>
+      </c>
+      <c r="M16" t="n">
+        <v>10000000</v>
+      </c>
+      <c r="N16" t="n">
+        <v>7500000</v>
+      </c>
+      <c r="O16" t="n">
+        <v>0</v>
+      </c>
+      <c r="P16" t="n">
+        <v>7500000</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>2500000</v>
+      </c>
+      <c r="R16" t="inlineStr">
+        <is>
+          <t>Nguyễn Hoàng Yến Quyên</t>
+        </is>
+      </c>
+      <c r="S16" t="n">
+        <v/>
+      </c>
+      <c r="T16" t="inlineStr">
+        <is>
+          <t>Lâm Hoàng Phú</t>
+        </is>
+      </c>
+      <c r="U16" t="n">
+        <v/>
+      </c>
+      <c r="V16" t="n">
+        <v>50000</v>
+      </c>
+      <c r="W16" t="n">
+        <v>0</v>
+      </c>
+      <c r="X16" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>975000</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>559</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>07-16-2024</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Lê Thị Kiều</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Cá nhân</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>Tiểu phẫu</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Mở góc mắt</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>Lê Đình Hậu</t>
+        </is>
+      </c>
+      <c r="J17" t="n">
+        <v>8000000</v>
+      </c>
+      <c r="K17" t="n">
+        <v/>
+      </c>
+      <c r="L17" t="n">
+        <v/>
+      </c>
+      <c r="M17" t="n">
+        <v>8000000</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>8000000</v>
+      </c>
+      <c r="R17" t="inlineStr">
+        <is>
+          <t>Nguyễn Hoàng Yến Quyên</t>
+        </is>
+      </c>
+      <c r="S17" t="n">
+        <v/>
+      </c>
+      <c r="T17" t="inlineStr">
+        <is>
+          <t>Trương Lâm Khanh</t>
+        </is>
+      </c>
+      <c r="U17" t="n">
+        <v/>
+      </c>
+      <c r="V17" t="n">
+        <v>50000</v>
+      </c>
+      <c r="W17" t="n">
+        <v>0</v>
+      </c>
+      <c r="X17" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>563</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>07-17-2024</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Nguyễn Bảo Nhi</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Cá nhân</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>Tiêm</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Tiêm Filler</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La Thị Ngọc Hà My </t>
+        </is>
+      </c>
+      <c r="J18" t="n">
+        <v>1800000</v>
+      </c>
+      <c r="K18" t="n">
+        <v/>
+      </c>
+      <c r="L18" t="n">
+        <v/>
+      </c>
+      <c r="M18" t="n">
+        <v>1800000</v>
+      </c>
+      <c r="N18" t="n">
+        <v>1800000</v>
+      </c>
+      <c r="O18" t="n">
+        <v>0</v>
+      </c>
+      <c r="P18" t="n">
+        <v>1800000</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>0</v>
+      </c>
+      <c r="R18" t="inlineStr">
+        <is>
+          <t>Nguyễn Hoàng Yến Quyên</t>
+        </is>
+      </c>
+      <c r="S18" t="n">
+        <v/>
+      </c>
+      <c r="T18" t="n">
+        <v/>
+      </c>
+      <c r="U18" t="n">
+        <v/>
+      </c>
+      <c r="V18" t="n">
+        <v>50000</v>
+      </c>
+      <c r="W18" t="n">
+        <v>0</v>
+      </c>
+      <c r="X18" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>180000</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>564</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>07-17-2024</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Đặng Thị Ngọc Huyền</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Cá nhân</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>Tiêm</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Tiêm Filler</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>Đỗ Thị Huyền Trân</t>
+        </is>
+      </c>
+      <c r="J19" t="n">
+        <v>1050000</v>
+      </c>
+      <c r="K19" t="n">
+        <v/>
+      </c>
+      <c r="L19" t="n">
+        <v/>
+      </c>
+      <c r="M19" t="n">
+        <v>1050000</v>
+      </c>
+      <c r="N19" t="n">
+        <v>1050000</v>
+      </c>
+      <c r="O19" t="n">
+        <v>0</v>
+      </c>
+      <c r="P19" t="n">
+        <v>1050000</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>0</v>
+      </c>
+      <c r="R19" t="inlineStr">
+        <is>
+          <t>Nguyễn Hoàng Yến Quyên</t>
+        </is>
+      </c>
+      <c r="S19" t="n">
+        <v/>
+      </c>
+      <c r="T19" t="n">
+        <v/>
+      </c>
+      <c r="U19" t="n">
+        <v/>
+      </c>
+      <c r="V19" t="n">
+        <v>50000</v>
+      </c>
+      <c r="W19" t="n">
+        <v>0</v>
+      </c>
+      <c r="X19" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>105000</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Tổng</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>18</v>
+      </c>
+      <c r="C20" t="inlineStr"/>
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr"/>
+      <c r="F20" t="inlineStr"/>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr"/>
+      <c r="I20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>74350000</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="n">
+        <v>3700000</v>
+      </c>
+      <c r="M20" t="n">
+        <v>78050000</v>
+      </c>
+      <c r="N20" t="n">
+        <v>62750000</v>
+      </c>
+      <c r="O20" t="n">
+        <v>4000000</v>
+      </c>
+      <c r="P20" t="n">
+        <v>66750000</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>11300000</v>
+      </c>
+      <c r="R20" t="inlineStr"/>
+      <c r="S20" t="inlineStr"/>
+      <c r="T20" t="inlineStr"/>
+      <c r="U20" t="inlineStr"/>
+      <c r="V20" t="n">
+        <v>600000</v>
+      </c>
+      <c r="W20" t="n">
+        <v>0</v>
+      </c>
+      <c r="X20" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>4288000</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>108000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:AA3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Tiền tố</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Mã dịch vụ</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Ngày thực hiện</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Cơ sở</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Khách hàng</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Nguồn khách</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>Nhóm dịch vụ</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>Tên dịch vụ</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>Sale chính</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>Đơn giá gốc</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>Sale phụ</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>Upsale</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>Đơn giá</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>Thanh toán lần đầu</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>Trả sau</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>Đã thanh toán</t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
+        <is>
+          <t>Dư nợ</t>
+        </is>
+      </c>
+      <c r="R1" t="inlineStr">
+        <is>
+          <t>Bác sĩ 1</t>
+        </is>
+      </c>
+      <c r="S1" t="inlineStr">
+        <is>
+          <t>Bác sĩ 2</t>
+        </is>
+      </c>
+      <c r="T1" t="inlineStr">
+        <is>
+          <t>Phụ phẫu 1</t>
+        </is>
+      </c>
+      <c r="U1" t="inlineStr">
+        <is>
+          <t>Phụ phẫu 2</t>
+        </is>
+      </c>
+      <c r="V1" t="inlineStr">
+        <is>
+          <t>Công phụ phẫu 1</t>
+        </is>
+      </c>
+      <c r="W1" t="inlineStr">
+        <is>
+          <t>Công phụ phẫu 2</t>
+        </is>
+      </c>
+      <c r="X1" t="inlineStr">
+        <is>
+          <t>Tỉ lệ chiết khấu sale chính</t>
+        </is>
+      </c>
+      <c r="Y1" t="inlineStr">
+        <is>
+          <t>Tỉ lệ chiết khấu sale phụ</t>
+        </is>
+      </c>
+      <c r="Z1" t="inlineStr">
+        <is>
+          <t>Chiết khấu sale chính</t>
+        </is>
+      </c>
+      <c r="AA1" t="inlineStr">
+        <is>
+          <t>Chiết khấu sale phụ</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>553</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>07-15-2024</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">nguyễn thị lệ trang </t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Cá nhân</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Nâng mũi</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Nâng mũi</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>Lê Đình Hậu</t>
+        </is>
+      </c>
+      <c r="J2" t="n">
+        <v>30000000</v>
+      </c>
+      <c r="K2" t="n">
+        <v/>
+      </c>
+      <c r="L2" t="n">
+        <v/>
+      </c>
+      <c r="M2" t="n">
+        <v>30000000</v>
+      </c>
+      <c r="N2" t="n">
+        <v>25000000</v>
+      </c>
+      <c r="O2" t="n">
+        <v>5000000</v>
+      </c>
+      <c r="P2" t="n">
+        <v>30000000</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>Phạm Thanh Hoàng</t>
+        </is>
+      </c>
+      <c r="S2" t="n">
+        <v/>
+      </c>
+      <c r="T2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Kha Như Huỳnh </t>
+        </is>
+      </c>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>Nguyễn Hoàng Yến Quyên</t>
+        </is>
+      </c>
+      <c r="V2" t="n">
+        <v>100000</v>
+      </c>
+      <c r="W2" t="n">
+        <v>50000</v>
+      </c>
+      <c r="X2" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>3900000</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Tổng</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="n">
+        <v>30000000</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>30000000</v>
+      </c>
+      <c r="N3" t="n">
+        <v>25000000</v>
+      </c>
+      <c r="O3" t="n">
+        <v>5000000</v>
+      </c>
+      <c r="P3" t="n">
+        <v>30000000</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R3" t="inlineStr"/>
+      <c r="S3" t="inlineStr"/>
+      <c r="T3" t="inlineStr"/>
+      <c r="U3" t="inlineStr"/>
+      <c r="V3" t="n">
+        <v>100000</v>
+      </c>
+      <c r="W3" t="n">
+        <v>50000</v>
+      </c>
+      <c r="X3" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>3900000</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:AB3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Ngày thực hiện</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Ngày thu</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>notion id</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Tiền tố</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Mã đơn thu nợ</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Cơ sở</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>id đơn nợ</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>Lượng thu</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>Đơn nợ</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>Nguồn khách</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>Sale chính</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>Đơn giá gốc</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>Sale phụ</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>Upsale</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>Bác sĩ 1</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>Bác sĩ 2</t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
+        <is>
+          <t>Thanh toán lần đầu</t>
+        </is>
+      </c>
+      <c r="R1" t="inlineStr">
+        <is>
+          <t>Đã thanh toán</t>
+        </is>
+      </c>
+      <c r="S1" t="inlineStr">
+        <is>
+          <t>Tỉ lệ chiết khấu sale chính</t>
+        </is>
+      </c>
+      <c r="T1" t="inlineStr">
+        <is>
+          <t>Tỉ lệ chiết khấu sale phụ</t>
+        </is>
+      </c>
+      <c r="U1" t="inlineStr">
+        <is>
+          <t>id sale chính</t>
+        </is>
+      </c>
+      <c r="V1" t="inlineStr">
+        <is>
+          <t>id sale phụ</t>
+        </is>
+      </c>
+      <c r="W1" t="inlineStr">
+        <is>
+          <t>id bác sĩ 1</t>
+        </is>
+      </c>
+      <c r="X1" t="inlineStr">
+        <is>
+          <t>id bác sĩ 2</t>
+        </is>
+      </c>
+      <c r="Y1" t="inlineStr">
+        <is>
+          <t>Chiết khấu bác sĩ 1</t>
+        </is>
+      </c>
+      <c r="Z1" t="inlineStr">
+        <is>
+          <t>Chiết khấu bác sĩ 2</t>
+        </is>
+      </c>
+      <c r="AA1" t="inlineStr">
+        <is>
+          <t>Chiết khấu sale chính</t>
+        </is>
+      </c>
+      <c r="AB1" t="inlineStr">
+        <is>
+          <t>Chiết khấu sale phụ</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>06-18-2024</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>07-06-2024</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>4a026544-4d22-46fc-a5d8-be541c0bfa71</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>TN</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>138</v>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>4796904d-04d7-4511-9678-3fc13f458e73</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>500000</v>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>HD-LUXURY-437</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>CTV</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>CTV Ngoài</t>
+        </is>
+      </c>
+      <c r="L2" t="n">
+        <v>2500000</v>
+      </c>
+      <c r="M2" t="n">
+        <v/>
+      </c>
+      <c r="N2" t="n">
+        <v/>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>Nguyễn Hoàng Yến Quyên</t>
+        </is>
+      </c>
+      <c r="P2" t="n">
+        <v/>
+      </c>
+      <c r="Q2" t="n">
+        <v>2000000</v>
+      </c>
+      <c r="R2" t="n">
+        <v>2500000</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>7bb857c9-f973-440b-88f2-97e138ee6082</t>
+        </is>
+      </c>
+      <c r="V2" t="n">
+        <v/>
+      </c>
+      <c r="W2" t="inlineStr">
+        <is>
+          <t>75046948-a198-4627-89b3-3bbf5967526b</t>
+        </is>
+      </c>
+      <c r="X2" t="n">
+        <v/>
+      </c>
+      <c r="Y2" t="n">
+        <v>50000</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr"/>
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Tổng</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="n">
+        <v>500000</v>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>2500000</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="inlineStr"/>
+      <c r="P3" t="inlineStr"/>
+      <c r="Q3" t="n">
+        <v>2000000</v>
+      </c>
+      <c r="R3" t="n">
+        <v>2500000</v>
+      </c>
+      <c r="S3" t="n">
+        <v>0</v>
+      </c>
+      <c r="T3" t="n">
+        <v>0</v>
+      </c>
+      <c r="U3" t="inlineStr"/>
+      <c r="V3" t="inlineStr"/>
+      <c r="W3" t="inlineStr"/>
+      <c r="X3" t="inlineStr"/>
+      <c r="Y3" t="n">
+        <v>50000</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
           <t>Danh mục</t>
         </is>
       </c>
@@ -1898,7 +3993,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>13.5</v>
+        <v>18.5</v>
       </c>
     </row>
     <row r="3">
@@ -1908,7 +4003,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>472500</v>
+        <v>647500</v>
       </c>
     </row>
     <row r="4">
@@ -1918,7 +4013,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v/>
+        <v>5180000</v>
       </c>
     </row>
     <row r="5">
@@ -1928,7 +4023,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>825000</v>
+        <v>600000</v>
       </c>
     </row>
     <row r="6">
@@ -1938,7 +4033,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>60000</v>
       </c>
     </row>
     <row r="7">
@@ -1948,7 +4043,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1410000</v>
+        <v>3475000</v>
       </c>
     </row>
     <row r="8">
@@ -1984,27 +4079,27 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Lương cơ bản tại LONG XUYÊN</t>
+          <t>Ứng lương tại CẦN THƠ</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v/>
+        <v>-500000</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Chiết khấu sale chính tại LONG XUYÊN</t>
+          <t>Lương cơ bản tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v/>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Chiết khấu sale phụ tại LONG XUYÊN</t>
+          <t>Chiết khấu sale chính tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B13" t="n">
@@ -2014,27 +4109,27 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Đơn 1 bác sĩ tại LONG XUYÊN</t>
+          <t>Chiết khấu sale phụ tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>300000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Đơn 2 bác sĩ tại LONG XUYÊN</t>
+          <t>Đơn 1 bác sĩ tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>350000</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Công phụ phẫu 1 tại LONG XUYÊN</t>
+          <t>Đơn 2 bác sĩ tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -2044,7 +4139,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Công phụ phẫu 2 tại LONG XUYÊN</t>
+          <t>Công phụ phẫu 1 tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -2054,47 +4149,47 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Lương cơ bản tại SÓC TRĂNG</t>
+          <t>Công phụ phẫu 2 tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v/>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Chiết khấu sale chính tại SÓC TRĂNG</t>
+          <t>Ứng lương tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Chiết khấu sale phụ tại SÓC TRĂNG</t>
+          <t>Lương cơ bản tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v/>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Đơn 1 bác sĩ tại SÓC TRĂNG</t>
+          <t>Chiết khấu sale chính tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>2550000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Đơn 2 bác sĩ tại SÓC TRĂNG</t>
+          <t>Chiết khấu sale phụ tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B22" t="n">
@@ -2104,21 +4199,91 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Công phụ phẫu 1 tại SÓC TRĂNG</t>
+          <t>Đơn 1 bác sĩ tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>2850000</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
+          <t>Đơn 2 bác sĩ tại SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Công phụ phẫu 1 tại SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
           <t>Công phụ phẫu 2 tại SÓC TRĂNG</t>
         </is>
       </c>
-      <c r="B24" t="n">
-        <v>0</v>
+      <c r="B26" t="n">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Ứng lương tại SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>-0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Tổng lương tại CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>14318750</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Tổng lương tại LONG XUYÊN</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>350000</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Tổng lương tại SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>2900000</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Tổng lương</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>17568750</v>
       </c>
     </row>
   </sheetData>

--- a/report_ca_nhan/NV-5 Nguyễn Hoàng Yến Quyên 7-2024.xlsx
+++ b/report_ca_nhan/NV-5 Nguyễn Hoàng Yến Quyên 7-2024.xlsx
@@ -418,7 +418,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA4"/>
+  <dimension ref="A1:N4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -459,107 +459,42 @@
       </c>
       <c r="G1" t="inlineStr">
         <is>
-          <t>Nhóm dịch vụ</t>
+          <t>Tên dịch vụ</t>
         </is>
       </c>
       <c r="H1" t="inlineStr">
         <is>
-          <t>Tên dịch vụ</t>
+          <t>Đơn giá gốc</t>
         </is>
       </c>
       <c r="I1" t="inlineStr">
         <is>
-          <t>Sale chính</t>
+          <t>Sale phụ</t>
         </is>
       </c>
       <c r="J1" t="inlineStr">
         <is>
-          <t>Đơn giá gốc</t>
+          <t>Upsale</t>
         </is>
       </c>
       <c r="K1" t="inlineStr">
         <is>
-          <t>Sale phụ</t>
+          <t>Đơn giá</t>
         </is>
       </c>
       <c r="L1" t="inlineStr">
         <is>
-          <t>Upsale</t>
+          <t>Đã thanh toán</t>
         </is>
       </c>
       <c r="M1" t="inlineStr">
         <is>
-          <t>Đơn giá</t>
+          <t>Tỉ lệ chiết khấu sale chính</t>
         </is>
       </c>
       <c r="N1" t="inlineStr">
         <is>
-          <t>Thanh toán lần đầu</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>Trả sau</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>Đã thanh toán</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>Dư nợ</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>Bác sĩ 1</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>Bác sĩ 2</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>Phụ phẫu 1</t>
-        </is>
-      </c>
-      <c r="U1" t="inlineStr">
-        <is>
-          <t>Phụ phẫu 2</t>
-        </is>
-      </c>
-      <c r="V1" t="inlineStr">
-        <is>
-          <t>Công phụ phẫu 1</t>
-        </is>
-      </c>
-      <c r="W1" t="inlineStr">
-        <is>
-          <t>Công phụ phẫu 2</t>
-        </is>
-      </c>
-      <c r="X1" t="inlineStr">
-        <is>
-          <t>Tỉ lệ chiết khấu sale chính</t>
-        </is>
-      </c>
-      <c r="Y1" t="inlineStr">
-        <is>
-          <t>Tỉ lệ chiết khấu sale phụ</t>
-        </is>
-      </c>
-      <c r="Z1" t="inlineStr">
-        <is>
           <t>Chiết khấu sale chính</t>
-        </is>
-      </c>
-      <c r="AA1" t="inlineStr">
-        <is>
-          <t>Chiết khấu sale phụ</t>
         </is>
       </c>
     </row>
@@ -594,74 +529,29 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Tiêm</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
           <t>Tiêm Filler</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>Nguyễn Hoàng Yến Quyên</t>
-        </is>
+      <c r="H2" t="n">
+        <v>4500000</v>
+      </c>
+      <c r="I2" t="n">
+        <v/>
       </c>
       <c r="J2" t="n">
+        <v/>
+      </c>
+      <c r="K2" t="n">
         <v>4500000</v>
       </c>
-      <c r="K2" t="n">
-        <v/>
-      </c>
       <c r="L2" t="n">
-        <v/>
+        <v>4500000</v>
       </c>
       <c r="M2" t="n">
-        <v>4500000</v>
+        <v>0.1</v>
       </c>
       <c r="N2" t="n">
-        <v>4500000</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>4500000</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R2" t="inlineStr">
-        <is>
-          <t>Lâm Thị Mỹ Hằng</t>
-        </is>
-      </c>
-      <c r="S2" t="n">
-        <v/>
-      </c>
-      <c r="T2" t="n">
-        <v/>
-      </c>
-      <c r="U2" t="n">
-        <v/>
-      </c>
-      <c r="V2" t="n">
-        <v>50000</v>
-      </c>
-      <c r="W2" t="n">
-        <v>0</v>
-      </c>
-      <c r="X2" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z2" t="n">
         <v>450000</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -695,74 +585,29 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Tiêm</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
           <t>Tiêm Filler</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>Nguyễn Hoàng Yến Quyên</t>
-        </is>
+      <c r="H3" t="n">
+        <v>1500000</v>
+      </c>
+      <c r="I3" t="n">
+        <v/>
       </c>
       <c r="J3" t="n">
+        <v/>
+      </c>
+      <c r="K3" t="n">
         <v>1500000</v>
       </c>
-      <c r="K3" t="n">
-        <v/>
-      </c>
       <c r="L3" t="n">
-        <v/>
+        <v>1500000</v>
       </c>
       <c r="M3" t="n">
-        <v>1500000</v>
+        <v>0.1</v>
       </c>
       <c r="N3" t="n">
-        <v>1500000</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>1500000</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>0</v>
-      </c>
-      <c r="R3" t="inlineStr">
-        <is>
-          <t>Lâm Thị Mỹ Hằng</t>
-        </is>
-      </c>
-      <c r="S3" t="n">
-        <v/>
-      </c>
-      <c r="T3" t="n">
-        <v/>
-      </c>
-      <c r="U3" t="n">
-        <v/>
-      </c>
-      <c r="V3" t="n">
-        <v>50000</v>
-      </c>
-      <c r="W3" t="n">
-        <v>0</v>
-      </c>
-      <c r="X3" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z3" t="n">
         <v>150000</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -779,51 +624,24 @@
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr"/>
+      <c r="H4" t="n">
+        <v>6000000</v>
+      </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
         <v>6000000</v>
       </c>
-      <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>6000000</v>
       </c>
       <c r="M4" t="n">
-        <v>6000000</v>
+        <v>0.2</v>
       </c>
       <c r="N4" t="n">
-        <v>6000000</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0</v>
-      </c>
-      <c r="P4" t="n">
-        <v>6000000</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>0</v>
-      </c>
-      <c r="R4" t="inlineStr"/>
-      <c r="S4" t="inlineStr"/>
-      <c r="T4" t="inlineStr"/>
-      <c r="U4" t="inlineStr"/>
-      <c r="V4" t="n">
-        <v>100000</v>
-      </c>
-      <c r="W4" t="n">
-        <v>0</v>
-      </c>
-      <c r="X4" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z4" t="n">
         <v>600000</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -837,7 +655,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA4"/>
+  <dimension ref="A1:N4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -878,105 +696,40 @@
       </c>
       <c r="G1" t="inlineStr">
         <is>
-          <t>Nhóm dịch vụ</t>
+          <t>Tên dịch vụ</t>
         </is>
       </c>
       <c r="H1" t="inlineStr">
         <is>
-          <t>Tên dịch vụ</t>
+          <t>Đơn giá gốc</t>
         </is>
       </c>
       <c r="I1" t="inlineStr">
         <is>
-          <t>Sale chính</t>
+          <t>Sale phụ</t>
         </is>
       </c>
       <c r="J1" t="inlineStr">
         <is>
-          <t>Đơn giá gốc</t>
+          <t>Upsale</t>
         </is>
       </c>
       <c r="K1" t="inlineStr">
         <is>
-          <t>Sale phụ</t>
+          <t>Đơn giá</t>
         </is>
       </c>
       <c r="L1" t="inlineStr">
         <is>
-          <t>Upsale</t>
+          <t>Đã thanh toán</t>
         </is>
       </c>
       <c r="M1" t="inlineStr">
         <is>
-          <t>Đơn giá</t>
+          <t>Tỉ lệ chiết khấu sale phụ</t>
         </is>
       </c>
       <c r="N1" t="inlineStr">
-        <is>
-          <t>Thanh toán lần đầu</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>Trả sau</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>Đã thanh toán</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>Dư nợ</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>Bác sĩ 1</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>Bác sĩ 2</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>Phụ phẫu 1</t>
-        </is>
-      </c>
-      <c r="U1" t="inlineStr">
-        <is>
-          <t>Phụ phẫu 2</t>
-        </is>
-      </c>
-      <c r="V1" t="inlineStr">
-        <is>
-          <t>Công phụ phẫu 1</t>
-        </is>
-      </c>
-      <c r="W1" t="inlineStr">
-        <is>
-          <t>Công phụ phẫu 2</t>
-        </is>
-      </c>
-      <c r="X1" t="inlineStr">
-        <is>
-          <t>Tỉ lệ chiết khấu sale chính</t>
-        </is>
-      </c>
-      <c r="Y1" t="inlineStr">
-        <is>
-          <t>Tỉ lệ chiết khấu sale phụ</t>
-        </is>
-      </c>
-      <c r="Z1" t="inlineStr">
-        <is>
-          <t>Chiết khấu sale chính</t>
-        </is>
-      </c>
-      <c r="AA1" t="inlineStr">
         <is>
           <t>Chiết khấu sale phụ</t>
         </is>
@@ -1013,75 +766,30 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Phun xăm</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
           <t>Phun mày</t>
         </is>
       </c>
+      <c r="H2" t="n">
+        <v>500000</v>
+      </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>CTV Ngoài</t>
+          <t>Nguyễn Hoàng Yến Quyên</t>
         </is>
       </c>
       <c r="J2" t="n">
-        <v>500000</v>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>Nguyễn Hoàng Yến Quyên</t>
-        </is>
+        <v>1300000</v>
+      </c>
+      <c r="K2" t="n">
+        <v>1800000</v>
       </c>
       <c r="L2" t="n">
-        <v>1300000</v>
+        <v>1500000</v>
       </c>
       <c r="M2" t="n">
-        <v>1800000</v>
+        <v>0.02</v>
       </c>
       <c r="N2" t="n">
-        <v>1500000</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>1500000</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>300000</v>
-      </c>
-      <c r="R2" t="inlineStr">
-        <is>
-          <t>Nguyễn Hoàng Yến Quyên</t>
-        </is>
-      </c>
-      <c r="S2" t="n">
-        <v/>
-      </c>
-      <c r="T2" t="n">
-        <v/>
-      </c>
-      <c r="U2" t="n">
-        <v/>
-      </c>
-      <c r="V2" t="n">
-        <v>0</v>
-      </c>
-      <c r="W2" t="n">
-        <v>0</v>
-      </c>
-      <c r="X2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA2" t="n">
         <v>30000</v>
       </c>
     </row>
@@ -1116,75 +824,30 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Phun xăm</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
           <t>Phun mày</t>
         </is>
       </c>
+      <c r="H3" t="n">
+        <v>500000</v>
+      </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>CTV Ngoài</t>
+          <t>Nguyễn Hoàng Yến Quyên</t>
         </is>
       </c>
       <c r="J3" t="n">
-        <v>500000</v>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>Nguyễn Hoàng Yến Quyên</t>
-        </is>
+        <v>1000000</v>
+      </c>
+      <c r="K3" t="n">
+        <v>1500000</v>
       </c>
       <c r="L3" t="n">
-        <v>1000000</v>
+        <v>1500000</v>
       </c>
       <c r="M3" t="n">
-        <v>1500000</v>
+        <v>0.02</v>
       </c>
       <c r="N3" t="n">
-        <v>1500000</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>1500000</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>0</v>
-      </c>
-      <c r="R3" t="inlineStr">
-        <is>
-          <t>Nguyễn Hoàng Yến Quyên</t>
-        </is>
-      </c>
-      <c r="S3" t="n">
-        <v/>
-      </c>
-      <c r="T3" t="n">
-        <v/>
-      </c>
-      <c r="U3" t="n">
-        <v/>
-      </c>
-      <c r="V3" t="n">
-        <v>0</v>
-      </c>
-      <c r="W3" t="n">
-        <v>0</v>
-      </c>
-      <c r="X3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA3" t="n">
         <v>30000</v>
       </c>
     </row>
@@ -1202,50 +865,23 @@
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr"/>
+      <c r="H4" t="n">
+        <v>1000000</v>
+      </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="n">
-        <v>1000000</v>
-      </c>
-      <c r="K4" t="inlineStr"/>
+        <v>2300000</v>
+      </c>
+      <c r="K4" t="n">
+        <v>3300000</v>
+      </c>
       <c r="L4" t="n">
-        <v>2300000</v>
+        <v>3000000</v>
       </c>
       <c r="M4" t="n">
-        <v>3300000</v>
+        <v>0.04</v>
       </c>
       <c r="N4" t="n">
-        <v>3000000</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0</v>
-      </c>
-      <c r="P4" t="n">
-        <v>3000000</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>300000</v>
-      </c>
-      <c r="R4" t="inlineStr"/>
-      <c r="S4" t="inlineStr"/>
-      <c r="T4" t="inlineStr"/>
-      <c r="U4" t="inlineStr"/>
-      <c r="V4" t="n">
-        <v>0</v>
-      </c>
-      <c r="W4" t="n">
-        <v>0</v>
-      </c>
-      <c r="X4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA4" t="n">
         <v>60000</v>
       </c>
     </row>
@@ -1260,7 +896,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA20"/>
+  <dimension ref="A1:N20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1301,107 +937,42 @@
       </c>
       <c r="G1" t="inlineStr">
         <is>
-          <t>Nhóm dịch vụ</t>
+          <t>Tên dịch vụ</t>
         </is>
       </c>
       <c r="H1" t="inlineStr">
         <is>
-          <t>Tên dịch vụ</t>
+          <t>Đơn giá gốc</t>
         </is>
       </c>
       <c r="I1" t="inlineStr">
         <is>
-          <t>Sale chính</t>
+          <t>Sale phụ</t>
         </is>
       </c>
       <c r="J1" t="inlineStr">
         <is>
-          <t>Đơn giá gốc</t>
+          <t>Upsale</t>
         </is>
       </c>
       <c r="K1" t="inlineStr">
         <is>
-          <t>Sale phụ</t>
+          <t>Đơn giá</t>
         </is>
       </c>
       <c r="L1" t="inlineStr">
         <is>
-          <t>Upsale</t>
+          <t>Đã thanh toán</t>
         </is>
       </c>
       <c r="M1" t="inlineStr">
         <is>
-          <t>Đơn giá</t>
+          <t>Tỉ lệ chiết khấu bác sĩ 1</t>
         </is>
       </c>
       <c r="N1" t="inlineStr">
         <is>
-          <t>Thanh toán lần đầu</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>Trả sau</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>Đã thanh toán</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>Dư nợ</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>Bác sĩ 1</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>Bác sĩ 2</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>Phụ phẫu 1</t>
-        </is>
-      </c>
-      <c r="U1" t="inlineStr">
-        <is>
-          <t>Phụ phẫu 2</t>
-        </is>
-      </c>
-      <c r="V1" t="inlineStr">
-        <is>
-          <t>Công phụ phẫu 1</t>
-        </is>
-      </c>
-      <c r="W1" t="inlineStr">
-        <is>
-          <t>Công phụ phẫu 2</t>
-        </is>
-      </c>
-      <c r="X1" t="inlineStr">
-        <is>
-          <t>Tỉ lệ chiết khấu sale chính</t>
-        </is>
-      </c>
-      <c r="Y1" t="inlineStr">
-        <is>
-          <t>Tỉ lệ chiết khấu sale phụ</t>
-        </is>
-      </c>
-      <c r="Z1" t="inlineStr">
-        <is>
-          <t>Chiết khấu sale chính</t>
-        </is>
-      </c>
-      <c r="AA1" t="inlineStr">
-        <is>
-          <t>Chiết khấu sale phụ</t>
+          <t>Chiết khấu bác sĩ 1</t>
         </is>
       </c>
     </row>
@@ -1436,76 +1007,29 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Tiểu phẫu</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
           <t>Cắt mí</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>Lâm Thị Mỹ Hằng</t>
-        </is>
+      <c r="H2" t="n">
+        <v>8000000</v>
+      </c>
+      <c r="I2" t="n">
+        <v/>
       </c>
       <c r="J2" t="n">
+        <v/>
+      </c>
+      <c r="K2" t="n">
         <v>8000000</v>
       </c>
-      <c r="K2" t="n">
-        <v/>
-      </c>
       <c r="L2" t="n">
-        <v/>
+        <v>8000000</v>
       </c>
       <c r="M2" t="n">
-        <v>8000000</v>
+        <v>0.1</v>
       </c>
       <c r="N2" t="n">
-        <v>8000000</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>8000000</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R2" t="inlineStr">
-        <is>
-          <t>Nguyễn Hoàng Yến Quyên</t>
-        </is>
-      </c>
-      <c r="S2" t="n">
-        <v/>
-      </c>
-      <c r="T2" t="inlineStr">
-        <is>
-          <t>Lâm Hoàng Phú</t>
-        </is>
-      </c>
-      <c r="U2" t="n">
-        <v/>
-      </c>
-      <c r="V2" t="n">
-        <v>50000</v>
-      </c>
-      <c r="W2" t="n">
-        <v>0</v>
-      </c>
-      <c r="X2" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>1040000</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>0</v>
+        <v>800000</v>
       </c>
     </row>
     <row r="3">
@@ -1539,74 +1063,29 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Tiêm</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
           <t>Tiêm Filler</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>Lâm Thị Mỹ Hằng</t>
-        </is>
+      <c r="H3" t="n">
+        <v>500000</v>
+      </c>
+      <c r="I3" t="n">
+        <v/>
       </c>
       <c r="J3" t="n">
+        <v/>
+      </c>
+      <c r="K3" t="n">
         <v>500000</v>
       </c>
-      <c r="K3" t="n">
-        <v/>
-      </c>
       <c r="L3" t="n">
-        <v/>
+        <v>500000</v>
       </c>
       <c r="M3" t="n">
-        <v>500000</v>
+        <v>0.1</v>
       </c>
       <c r="N3" t="n">
-        <v>500000</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>500000</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>0</v>
-      </c>
-      <c r="R3" t="inlineStr">
-        <is>
-          <t>Nguyễn Hoàng Yến Quyên</t>
-        </is>
-      </c>
-      <c r="S3" t="n">
-        <v/>
-      </c>
-      <c r="T3" t="n">
-        <v/>
-      </c>
-      <c r="U3" t="n">
-        <v/>
-      </c>
-      <c r="V3" t="n">
         <v>50000</v>
-      </c>
-      <c r="W3" t="n">
-        <v>0</v>
-      </c>
-      <c r="X3" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>50000</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -1640,76 +1119,29 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Tiêm</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
           <t>Tiêm Filler</t>
         </is>
       </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>Thạch Hoàng Nhân</t>
-        </is>
+      <c r="H4" t="n">
+        <v>21500000</v>
+      </c>
+      <c r="I4" t="n">
+        <v/>
       </c>
       <c r="J4" t="n">
+        <v/>
+      </c>
+      <c r="K4" t="n">
         <v>21500000</v>
       </c>
-      <c r="K4" t="n">
-        <v/>
-      </c>
       <c r="L4" t="n">
-        <v/>
+        <v>21500000</v>
       </c>
       <c r="M4" t="n">
-        <v>21500000</v>
+        <v>0.1</v>
       </c>
       <c r="N4" t="n">
-        <v>21500000</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0</v>
-      </c>
-      <c r="P4" t="n">
-        <v>21500000</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>0</v>
-      </c>
-      <c r="R4" t="inlineStr">
-        <is>
-          <t>Nguyễn Hoàng Yến Quyên</t>
-        </is>
-      </c>
-      <c r="S4" t="n">
-        <v/>
-      </c>
-      <c r="T4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Kha Như Huỳnh </t>
-        </is>
-      </c>
-      <c r="U4" t="n">
-        <v/>
-      </c>
-      <c r="V4" t="n">
-        <v>50000</v>
-      </c>
-      <c r="W4" t="n">
-        <v>0</v>
-      </c>
-      <c r="X4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>0</v>
+        <v>2150000</v>
       </c>
     </row>
     <row r="5">
@@ -1743,76 +1175,29 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Tiểu phẫu</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
           <t>Nâng cung chân mày</t>
         </is>
       </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>Đỗ Thị Huyền Trân</t>
-        </is>
+      <c r="H5" t="n">
+        <v>3700000</v>
+      </c>
+      <c r="I5" t="n">
+        <v/>
       </c>
       <c r="J5" t="n">
+        <v/>
+      </c>
+      <c r="K5" t="n">
         <v>3700000</v>
       </c>
-      <c r="K5" t="n">
-        <v/>
-      </c>
       <c r="L5" t="n">
-        <v/>
+        <v>3700000</v>
       </c>
       <c r="M5" t="n">
-        <v>3700000</v>
+        <v>0.1</v>
       </c>
       <c r="N5" t="n">
-        <v>3700000</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>3700000</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>0</v>
-      </c>
-      <c r="R5" t="inlineStr">
-        <is>
-          <t>Nguyễn Hoàng Yến Quyên</t>
-        </is>
-      </c>
-      <c r="S5" t="n">
-        <v/>
-      </c>
-      <c r="T5" t="inlineStr">
-        <is>
-          <t>Lâm Hoàng Phú</t>
-        </is>
-      </c>
-      <c r="U5" t="n">
-        <v/>
-      </c>
-      <c r="V5" t="n">
-        <v>50000</v>
-      </c>
-      <c r="W5" t="n">
-        <v>0</v>
-      </c>
-      <c r="X5" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z5" t="n">
-        <v>148000</v>
-      </c>
-      <c r="AA5" t="n">
-        <v>0</v>
+        <v>370000</v>
       </c>
     </row>
     <row r="6">
@@ -1846,76 +1231,31 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Phun xăm</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
           <t>Phun mày</t>
         </is>
       </c>
+      <c r="H6" t="n">
+        <v>500000</v>
+      </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>CTV Ngoài</t>
+          <t>Đỗ Thị Huyền Trân</t>
         </is>
       </c>
       <c r="J6" t="n">
-        <v>500000</v>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>Đỗ Thị Huyền Trân</t>
-        </is>
+        <v>1000000</v>
+      </c>
+      <c r="K6" t="n">
+        <v>1500000</v>
       </c>
       <c r="L6" t="n">
-        <v>1000000</v>
+        <v>1500000</v>
       </c>
       <c r="M6" t="n">
-        <v>1500000</v>
+        <v>0.1</v>
       </c>
       <c r="N6" t="n">
-        <v>1000000</v>
-      </c>
-      <c r="O6" t="n">
-        <v>500000</v>
-      </c>
-      <c r="P6" t="n">
-        <v>1500000</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>0</v>
-      </c>
-      <c r="R6" t="inlineStr">
-        <is>
-          <t>Nguyễn Hoàng Yến Quyên</t>
-        </is>
-      </c>
-      <c r="S6" t="n">
-        <v/>
-      </c>
-      <c r="T6" t="n">
-        <v/>
-      </c>
-      <c r="U6" t="n">
-        <v/>
-      </c>
-      <c r="V6" t="n">
-        <v/>
-      </c>
-      <c r="W6" t="n">
-        <v/>
-      </c>
-      <c r="X6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="Z6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA6" t="n">
-        <v>30000</v>
+        <v>150000</v>
       </c>
     </row>
     <row r="7">
@@ -1949,76 +1289,29 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Tiểu phẫu</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
           <t>Cắt mí</t>
         </is>
       </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>Lê Đình Hậu</t>
-        </is>
+      <c r="H7" t="n">
+        <v>7000000</v>
+      </c>
+      <c r="I7" t="n">
+        <v/>
       </c>
       <c r="J7" t="n">
+        <v/>
+      </c>
+      <c r="K7" t="n">
         <v>7000000</v>
       </c>
-      <c r="K7" t="n">
-        <v/>
-      </c>
       <c r="L7" t="n">
-        <v/>
+        <v>7000000</v>
       </c>
       <c r="M7" t="n">
-        <v>7000000</v>
+        <v>0.1</v>
       </c>
       <c r="N7" t="n">
-        <v>4000000</v>
-      </c>
-      <c r="O7" t="n">
-        <v>3000000</v>
-      </c>
-      <c r="P7" t="n">
-        <v>7000000</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>0</v>
-      </c>
-      <c r="R7" t="inlineStr">
-        <is>
-          <t>Nguyễn Hoàng Yến Quyên</t>
-        </is>
-      </c>
-      <c r="S7" t="n">
-        <v/>
-      </c>
-      <c r="T7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Kha Như Huỳnh </t>
-        </is>
-      </c>
-      <c r="U7" t="n">
-        <v/>
-      </c>
-      <c r="V7" t="n">
-        <v>50000</v>
-      </c>
-      <c r="W7" t="n">
-        <v>0</v>
-      </c>
-      <c r="X7" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="Y7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z7" t="n">
-        <v>910000</v>
-      </c>
-      <c r="AA7" t="n">
-        <v>0</v>
+        <v>700000</v>
       </c>
     </row>
     <row r="8">
@@ -2052,76 +1345,29 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Tiểu phẫu</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
           <t>Cắt mí</t>
         </is>
       </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>Nguyễn Phúc Nam</t>
-        </is>
+      <c r="H8" t="n">
+        <v>4000000</v>
+      </c>
+      <c r="I8" t="n">
+        <v/>
       </c>
       <c r="J8" t="n">
+        <v/>
+      </c>
+      <c r="K8" t="n">
         <v>4000000</v>
       </c>
-      <c r="K8" t="n">
-        <v/>
-      </c>
       <c r="L8" t="n">
-        <v/>
+        <v>3500000</v>
       </c>
       <c r="M8" t="n">
-        <v>4000000</v>
+        <v>0.1</v>
       </c>
       <c r="N8" t="n">
-        <v>3000000</v>
-      </c>
-      <c r="O8" t="n">
-        <v>500000</v>
-      </c>
-      <c r="P8" t="n">
-        <v>3500000</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>500000</v>
-      </c>
-      <c r="R8" t="inlineStr">
-        <is>
-          <t>Nguyễn Hoàng Yến Quyên</t>
-        </is>
-      </c>
-      <c r="S8" t="n">
-        <v/>
-      </c>
-      <c r="T8" t="inlineStr">
-        <is>
-          <t>Đào Vương Anh</t>
-        </is>
-      </c>
-      <c r="U8" t="n">
-        <v/>
-      </c>
-      <c r="V8" t="n">
-        <v>50000</v>
-      </c>
-      <c r="W8" t="n">
-        <v>0</v>
-      </c>
-      <c r="X8" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z8" t="n">
         <v>350000</v>
-      </c>
-      <c r="AA8" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -2155,76 +1401,31 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Phun xăm</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
           <t>Phun mày</t>
         </is>
       </c>
+      <c r="H9" t="n">
+        <v>500000</v>
+      </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>CTV Ngoài</t>
+          <t>Đỗ Thị Huyền Trân</t>
         </is>
       </c>
       <c r="J9" t="n">
-        <v>500000</v>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>Đỗ Thị Huyền Trân</t>
-        </is>
+        <v>400000</v>
+      </c>
+      <c r="K9" t="n">
+        <v>900000</v>
       </c>
       <c r="L9" t="n">
-        <v>400000</v>
+        <v>900000</v>
       </c>
       <c r="M9" t="n">
-        <v>900000</v>
+        <v>0.1</v>
       </c>
       <c r="N9" t="n">
-        <v>900000</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0</v>
-      </c>
-      <c r="P9" t="n">
-        <v>900000</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>0</v>
-      </c>
-      <c r="R9" t="inlineStr">
-        <is>
-          <t>Nguyễn Hoàng Yến Quyên</t>
-        </is>
-      </c>
-      <c r="S9" t="n">
-        <v/>
-      </c>
-      <c r="T9" t="n">
-        <v/>
-      </c>
-      <c r="U9" t="n">
-        <v/>
-      </c>
-      <c r="V9" t="n">
-        <v/>
-      </c>
-      <c r="W9" t="n">
-        <v/>
-      </c>
-      <c r="X9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y9" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="Z9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA9" t="n">
-        <v>18000</v>
+        <v>90000</v>
       </c>
     </row>
     <row r="10">
@@ -2258,74 +1459,29 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Tiêm</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
           <t>Tiêm Filler</t>
         </is>
       </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>Đỗ Thị Huyền Trân</t>
-        </is>
+      <c r="H10" t="n">
+        <v>2800000</v>
+      </c>
+      <c r="I10" t="n">
+        <v/>
       </c>
       <c r="J10" t="n">
+        <v/>
+      </c>
+      <c r="K10" t="n">
         <v>2800000</v>
       </c>
-      <c r="K10" t="n">
-        <v/>
-      </c>
       <c r="L10" t="n">
-        <v/>
+        <v>2800000</v>
       </c>
       <c r="M10" t="n">
-        <v>2800000</v>
+        <v>0.1</v>
       </c>
       <c r="N10" t="n">
-        <v>2800000</v>
-      </c>
-      <c r="O10" t="n">
-        <v>0</v>
-      </c>
-      <c r="P10" t="n">
-        <v>2800000</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>0</v>
-      </c>
-      <c r="R10" t="inlineStr">
-        <is>
-          <t>Nguyễn Hoàng Yến Quyên</t>
-        </is>
-      </c>
-      <c r="S10" t="n">
-        <v/>
-      </c>
-      <c r="T10" t="n">
-        <v/>
-      </c>
-      <c r="U10" t="n">
-        <v/>
-      </c>
-      <c r="V10" t="n">
-        <v>50000</v>
-      </c>
-      <c r="W10" t="n">
-        <v>0</v>
-      </c>
-      <c r="X10" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="Y10" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z10" t="n">
         <v>280000</v>
-      </c>
-      <c r="AA10" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -2359,74 +1515,29 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Phun xăm</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
           <t>Điêu khắc mày</t>
         </is>
       </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>CTV Ngoài</t>
-        </is>
+      <c r="H11" t="n">
+        <v>1500000</v>
+      </c>
+      <c r="I11" t="n">
+        <v/>
       </c>
       <c r="J11" t="n">
+        <v/>
+      </c>
+      <c r="K11" t="n">
         <v>1500000</v>
       </c>
-      <c r="K11" t="n">
-        <v/>
-      </c>
       <c r="L11" t="n">
-        <v/>
+        <v>1500000</v>
       </c>
       <c r="M11" t="n">
-        <v>1500000</v>
+        <v>0.1</v>
       </c>
       <c r="N11" t="n">
-        <v>1500000</v>
-      </c>
-      <c r="O11" t="n">
-        <v>0</v>
-      </c>
-      <c r="P11" t="n">
-        <v>1500000</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>0</v>
-      </c>
-      <c r="R11" t="inlineStr">
-        <is>
-          <t>Nguyễn Hoàng Yến Quyên</t>
-        </is>
-      </c>
-      <c r="S11" t="n">
-        <v/>
-      </c>
-      <c r="T11" t="n">
-        <v/>
-      </c>
-      <c r="U11" t="n">
-        <v/>
-      </c>
-      <c r="V11" t="n">
-        <v>0</v>
-      </c>
-      <c r="W11" t="n">
-        <v>0</v>
-      </c>
-      <c r="X11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA11" t="n">
-        <v>0</v>
+        <v>150000</v>
       </c>
     </row>
     <row r="12">
@@ -2460,76 +1571,31 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Phun xăm</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
           <t>Phun mày</t>
         </is>
       </c>
+      <c r="H12" t="n">
+        <v>500000</v>
+      </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>CTV Ngoài</t>
+          <t>Nguyễn Hoàng Yến Quyên</t>
         </is>
       </c>
       <c r="J12" t="n">
-        <v>500000</v>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>Nguyễn Hoàng Yến Quyên</t>
-        </is>
+        <v>1300000</v>
+      </c>
+      <c r="K12" t="n">
+        <v>1800000</v>
       </c>
       <c r="L12" t="n">
-        <v>1300000</v>
+        <v>1500000</v>
       </c>
       <c r="M12" t="n">
-        <v>1800000</v>
+        <v>0.1</v>
       </c>
       <c r="N12" t="n">
-        <v>1500000</v>
-      </c>
-      <c r="O12" t="n">
-        <v>0</v>
-      </c>
-      <c r="P12" t="n">
-        <v>1500000</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>300000</v>
-      </c>
-      <c r="R12" t="inlineStr">
-        <is>
-          <t>Nguyễn Hoàng Yến Quyên</t>
-        </is>
-      </c>
-      <c r="S12" t="n">
-        <v/>
-      </c>
-      <c r="T12" t="n">
-        <v/>
-      </c>
-      <c r="U12" t="n">
-        <v/>
-      </c>
-      <c r="V12" t="n">
-        <v>0</v>
-      </c>
-      <c r="W12" t="n">
-        <v>0</v>
-      </c>
-      <c r="X12" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y12" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="Z12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA12" t="n">
-        <v>30000</v>
+        <v>150000</v>
       </c>
     </row>
     <row r="13">
@@ -2563,74 +1629,29 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Tiêm</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
           <t>Tiêm Filler</t>
         </is>
       </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>Lâm Thị Mỹ Hằng</t>
-        </is>
+      <c r="H13" t="n">
+        <v>1200000</v>
+      </c>
+      <c r="I13" t="n">
+        <v/>
       </c>
       <c r="J13" t="n">
+        <v/>
+      </c>
+      <c r="K13" t="n">
         <v>1200000</v>
       </c>
-      <c r="K13" t="n">
-        <v/>
-      </c>
       <c r="L13" t="n">
-        <v/>
+        <v>1200000</v>
       </c>
       <c r="M13" t="n">
-        <v>1200000</v>
+        <v>0.1</v>
       </c>
       <c r="N13" t="n">
-        <v>1200000</v>
-      </c>
-      <c r="O13" t="n">
-        <v>0</v>
-      </c>
-      <c r="P13" t="n">
-        <v>1200000</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>0</v>
-      </c>
-      <c r="R13" t="inlineStr">
-        <is>
-          <t>Nguyễn Hoàng Yến Quyên</t>
-        </is>
-      </c>
-      <c r="S13" t="n">
-        <v/>
-      </c>
-      <c r="T13" t="n">
-        <v/>
-      </c>
-      <c r="U13" t="n">
-        <v/>
-      </c>
-      <c r="V13" t="n">
-        <v>50000</v>
-      </c>
-      <c r="W13" t="n">
-        <v>0</v>
-      </c>
-      <c r="X13" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="Y13" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z13" t="n">
         <v>120000</v>
-      </c>
-      <c r="AA13" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -2664,76 +1685,31 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Phun xăm</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
           <t>Phun mày</t>
         </is>
       </c>
+      <c r="H14" t="n">
+        <v>500000</v>
+      </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>CTV Ngoài</t>
+          <t>Nguyễn Hoàng Yến Quyên</t>
         </is>
       </c>
       <c r="J14" t="n">
-        <v>500000</v>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>Nguyễn Hoàng Yến Quyên</t>
-        </is>
+        <v>1000000</v>
+      </c>
+      <c r="K14" t="n">
+        <v>1500000</v>
       </c>
       <c r="L14" t="n">
-        <v>1000000</v>
+        <v>1500000</v>
       </c>
       <c r="M14" t="n">
-        <v>1500000</v>
+        <v>0.1</v>
       </c>
       <c r="N14" t="n">
-        <v>1500000</v>
-      </c>
-      <c r="O14" t="n">
-        <v>0</v>
-      </c>
-      <c r="P14" t="n">
-        <v>1500000</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>0</v>
-      </c>
-      <c r="R14" t="inlineStr">
-        <is>
-          <t>Nguyễn Hoàng Yến Quyên</t>
-        </is>
-      </c>
-      <c r="S14" t="n">
-        <v/>
-      </c>
-      <c r="T14" t="n">
-        <v/>
-      </c>
-      <c r="U14" t="n">
-        <v/>
-      </c>
-      <c r="V14" t="n">
-        <v>0</v>
-      </c>
-      <c r="W14" t="n">
-        <v>0</v>
-      </c>
-      <c r="X14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y14" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="Z14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA14" t="n">
-        <v>30000</v>
+        <v>150000</v>
       </c>
     </row>
     <row r="15">
@@ -2767,74 +1743,29 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Tiêm</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
           <t>Tiêm botox</t>
         </is>
       </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>Đỗ Thị Huyền Trân</t>
-        </is>
+      <c r="H15" t="n">
+        <v>1300000</v>
+      </c>
+      <c r="I15" t="n">
+        <v/>
       </c>
       <c r="J15" t="n">
+        <v/>
+      </c>
+      <c r="K15" t="n">
         <v>1300000</v>
       </c>
-      <c r="K15" t="n">
-        <v/>
-      </c>
       <c r="L15" t="n">
-        <v/>
+        <v>1300000</v>
       </c>
       <c r="M15" t="n">
-        <v>1300000</v>
+        <v>0.1</v>
       </c>
       <c r="N15" t="n">
-        <v>1300000</v>
-      </c>
-      <c r="O15" t="n">
-        <v>0</v>
-      </c>
-      <c r="P15" t="n">
-        <v>1300000</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>0</v>
-      </c>
-      <c r="R15" t="inlineStr">
-        <is>
-          <t>Nguyễn Hoàng Yến Quyên</t>
-        </is>
-      </c>
-      <c r="S15" t="n">
-        <v/>
-      </c>
-      <c r="T15" t="n">
-        <v/>
-      </c>
-      <c r="U15" t="n">
-        <v/>
-      </c>
-      <c r="V15" t="n">
-        <v>0</v>
-      </c>
-      <c r="W15" t="n">
-        <v>0</v>
-      </c>
-      <c r="X15" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="Y15" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z15" t="n">
         <v>130000</v>
-      </c>
-      <c r="AA15" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -2868,76 +1799,29 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Tiểu phẫu</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
           <t>Cắt mí</t>
         </is>
       </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>Lê Đình Hậu</t>
-        </is>
+      <c r="H16" t="n">
+        <v>10000000</v>
+      </c>
+      <c r="I16" t="n">
+        <v/>
       </c>
       <c r="J16" t="n">
+        <v/>
+      </c>
+      <c r="K16" t="n">
         <v>10000000</v>
       </c>
-      <c r="K16" t="n">
-        <v/>
-      </c>
       <c r="L16" t="n">
-        <v/>
+        <v>7500000</v>
       </c>
       <c r="M16" t="n">
-        <v>10000000</v>
+        <v>0.1</v>
       </c>
       <c r="N16" t="n">
-        <v>7500000</v>
-      </c>
-      <c r="O16" t="n">
-        <v>0</v>
-      </c>
-      <c r="P16" t="n">
-        <v>7500000</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>2500000</v>
-      </c>
-      <c r="R16" t="inlineStr">
-        <is>
-          <t>Nguyễn Hoàng Yến Quyên</t>
-        </is>
-      </c>
-      <c r="S16" t="n">
-        <v/>
-      </c>
-      <c r="T16" t="inlineStr">
-        <is>
-          <t>Lâm Hoàng Phú</t>
-        </is>
-      </c>
-      <c r="U16" t="n">
-        <v/>
-      </c>
-      <c r="V16" t="n">
-        <v>50000</v>
-      </c>
-      <c r="W16" t="n">
-        <v>0</v>
-      </c>
-      <c r="X16" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="Y16" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z16" t="n">
-        <v>975000</v>
-      </c>
-      <c r="AA16" t="n">
-        <v>0</v>
+        <v>750000</v>
       </c>
     </row>
     <row r="17">
@@ -2971,75 +1855,28 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Tiểu phẫu</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
           <t>Mở góc mắt</t>
         </is>
       </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>Lê Đình Hậu</t>
-        </is>
+      <c r="H17" t="n">
+        <v>8000000</v>
+      </c>
+      <c r="I17" t="n">
+        <v/>
       </c>
       <c r="J17" t="n">
+        <v/>
+      </c>
+      <c r="K17" t="n">
         <v>8000000</v>
       </c>
-      <c r="K17" t="n">
-        <v/>
-      </c>
       <c r="L17" t="n">
-        <v/>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>8000000</v>
+        <v>0.1</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
-      </c>
-      <c r="O17" t="n">
-        <v>0</v>
-      </c>
-      <c r="P17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>8000000</v>
-      </c>
-      <c r="R17" t="inlineStr">
-        <is>
-          <t>Nguyễn Hoàng Yến Quyên</t>
-        </is>
-      </c>
-      <c r="S17" t="n">
-        <v/>
-      </c>
-      <c r="T17" t="inlineStr">
-        <is>
-          <t>Trương Lâm Khanh</t>
-        </is>
-      </c>
-      <c r="U17" t="n">
-        <v/>
-      </c>
-      <c r="V17" t="n">
-        <v>50000</v>
-      </c>
-      <c r="W17" t="n">
-        <v>0</v>
-      </c>
-      <c r="X17" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="Y17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA17" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3074,74 +1911,29 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Tiêm</t>
-        </is>
-      </c>
-      <c r="H18" t="inlineStr">
-        <is>
           <t>Tiêm Filler</t>
         </is>
       </c>
-      <c r="I18" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La Thị Ngọc Hà My </t>
-        </is>
+      <c r="H18" t="n">
+        <v>1800000</v>
+      </c>
+      <c r="I18" t="n">
+        <v/>
       </c>
       <c r="J18" t="n">
+        <v/>
+      </c>
+      <c r="K18" t="n">
         <v>1800000</v>
       </c>
-      <c r="K18" t="n">
-        <v/>
-      </c>
       <c r="L18" t="n">
-        <v/>
+        <v>1800000</v>
       </c>
       <c r="M18" t="n">
-        <v>1800000</v>
+        <v>0.1</v>
       </c>
       <c r="N18" t="n">
-        <v>1800000</v>
-      </c>
-      <c r="O18" t="n">
-        <v>0</v>
-      </c>
-      <c r="P18" t="n">
-        <v>1800000</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>0</v>
-      </c>
-      <c r="R18" t="inlineStr">
-        <is>
-          <t>Nguyễn Hoàng Yến Quyên</t>
-        </is>
-      </c>
-      <c r="S18" t="n">
-        <v/>
-      </c>
-      <c r="T18" t="n">
-        <v/>
-      </c>
-      <c r="U18" t="n">
-        <v/>
-      </c>
-      <c r="V18" t="n">
-        <v>50000</v>
-      </c>
-      <c r="W18" t="n">
-        <v>0</v>
-      </c>
-      <c r="X18" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="Y18" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z18" t="n">
         <v>180000</v>
-      </c>
-      <c r="AA18" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -3175,74 +1967,29 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Tiêm</t>
-        </is>
-      </c>
-      <c r="H19" t="inlineStr">
-        <is>
           <t>Tiêm Filler</t>
         </is>
       </c>
-      <c r="I19" t="inlineStr">
-        <is>
-          <t>Đỗ Thị Huyền Trân</t>
-        </is>
+      <c r="H19" t="n">
+        <v>1050000</v>
+      </c>
+      <c r="I19" t="n">
+        <v/>
       </c>
       <c r="J19" t="n">
+        <v/>
+      </c>
+      <c r="K19" t="n">
         <v>1050000</v>
       </c>
-      <c r="K19" t="n">
-        <v/>
-      </c>
       <c r="L19" t="n">
-        <v/>
+        <v>1050000</v>
       </c>
       <c r="M19" t="n">
-        <v>1050000</v>
+        <v>0.1</v>
       </c>
       <c r="N19" t="n">
-        <v>1050000</v>
-      </c>
-      <c r="O19" t="n">
-        <v>0</v>
-      </c>
-      <c r="P19" t="n">
-        <v>1050000</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>0</v>
-      </c>
-      <c r="R19" t="inlineStr">
-        <is>
-          <t>Nguyễn Hoàng Yến Quyên</t>
-        </is>
-      </c>
-      <c r="S19" t="n">
-        <v/>
-      </c>
-      <c r="T19" t="n">
-        <v/>
-      </c>
-      <c r="U19" t="n">
-        <v/>
-      </c>
-      <c r="V19" t="n">
-        <v>50000</v>
-      </c>
-      <c r="W19" t="n">
-        <v>0</v>
-      </c>
-      <c r="X19" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="Y19" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z19" t="n">
         <v>105000</v>
-      </c>
-      <c r="AA19" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -3259,51 +2006,24 @@
       <c r="E20" t="inlineStr"/>
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr"/>
-      <c r="H20" t="inlineStr"/>
+      <c r="H20" t="n">
+        <v>74350000</v>
+      </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="n">
-        <v>74350000</v>
-      </c>
-      <c r="K20" t="inlineStr"/>
+        <v>3700000</v>
+      </c>
+      <c r="K20" t="n">
+        <v>78050000</v>
+      </c>
       <c r="L20" t="n">
-        <v>3700000</v>
+        <v>66750000</v>
       </c>
       <c r="M20" t="n">
-        <v>78050000</v>
+        <v>1.8</v>
       </c>
       <c r="N20" t="n">
-        <v>62750000</v>
-      </c>
-      <c r="O20" t="n">
-        <v>4000000</v>
-      </c>
-      <c r="P20" t="n">
-        <v>66750000</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>11300000</v>
-      </c>
-      <c r="R20" t="inlineStr"/>
-      <c r="S20" t="inlineStr"/>
-      <c r="T20" t="inlineStr"/>
-      <c r="U20" t="inlineStr"/>
-      <c r="V20" t="n">
-        <v>600000</v>
-      </c>
-      <c r="W20" t="n">
-        <v>0</v>
-      </c>
-      <c r="X20" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="Y20" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="Z20" t="n">
-        <v>4288000</v>
-      </c>
-      <c r="AA20" t="n">
-        <v>108000</v>
+        <v>6675000</v>
       </c>
     </row>
   </sheetData>
@@ -3317,7 +2037,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA3"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3358,107 +2078,17 @@
       </c>
       <c r="G1" t="inlineStr">
         <is>
-          <t>Nhóm dịch vụ</t>
+          <t>Tên dịch vụ</t>
         </is>
       </c>
       <c r="H1" t="inlineStr">
         <is>
-          <t>Tên dịch vụ</t>
+          <t>Phụ phẫu 2</t>
         </is>
       </c>
       <c r="I1" t="inlineStr">
         <is>
-          <t>Sale chính</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>Đơn giá gốc</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>Sale phụ</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>Upsale</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>Đơn giá</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>Thanh toán lần đầu</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>Trả sau</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>Đã thanh toán</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>Dư nợ</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>Bác sĩ 1</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>Bác sĩ 2</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>Phụ phẫu 1</t>
-        </is>
-      </c>
-      <c r="U1" t="inlineStr">
-        <is>
-          <t>Phụ phẫu 2</t>
-        </is>
-      </c>
-      <c r="V1" t="inlineStr">
-        <is>
-          <t>Công phụ phẫu 1</t>
-        </is>
-      </c>
-      <c r="W1" t="inlineStr">
-        <is>
           <t>Công phụ phẫu 2</t>
-        </is>
-      </c>
-      <c r="X1" t="inlineStr">
-        <is>
-          <t>Tỉ lệ chiết khấu sale chính</t>
-        </is>
-      </c>
-      <c r="Y1" t="inlineStr">
-        <is>
-          <t>Tỉ lệ chiết khấu sale phụ</t>
-        </is>
-      </c>
-      <c r="Z1" t="inlineStr">
-        <is>
-          <t>Chiết khấu sale chính</t>
-        </is>
-      </c>
-      <c r="AA1" t="inlineStr">
-        <is>
-          <t>Chiết khấu sale phụ</t>
         </is>
       </c>
     </row>
@@ -3498,73 +2128,11 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Nâng mũi</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>Lê Đình Hậu</t>
-        </is>
-      </c>
-      <c r="J2" t="n">
-        <v>30000000</v>
-      </c>
-      <c r="K2" t="n">
-        <v/>
-      </c>
-      <c r="L2" t="n">
-        <v/>
-      </c>
-      <c r="M2" t="n">
-        <v>30000000</v>
-      </c>
-      <c r="N2" t="n">
-        <v>25000000</v>
-      </c>
-      <c r="O2" t="n">
-        <v>5000000</v>
-      </c>
-      <c r="P2" t="n">
-        <v>30000000</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R2" t="inlineStr">
-        <is>
-          <t>Phạm Thanh Hoàng</t>
-        </is>
-      </c>
-      <c r="S2" t="n">
-        <v/>
-      </c>
-      <c r="T2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Kha Như Huỳnh </t>
-        </is>
-      </c>
-      <c r="U2" t="inlineStr">
-        <is>
           <t>Nguyễn Hoàng Yến Quyên</t>
         </is>
       </c>
-      <c r="V2" t="n">
-        <v>100000</v>
-      </c>
-      <c r="W2" t="n">
+      <c r="I2" t="n">
         <v>50000</v>
-      </c>
-      <c r="X2" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>3900000</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -3582,50 +2150,8 @@
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="n">
-        <v>30000000</v>
-      </c>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>30000000</v>
-      </c>
-      <c r="N3" t="n">
-        <v>25000000</v>
-      </c>
-      <c r="O3" t="n">
-        <v>5000000</v>
-      </c>
-      <c r="P3" t="n">
-        <v>30000000</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>0</v>
-      </c>
-      <c r="R3" t="inlineStr"/>
-      <c r="S3" t="inlineStr"/>
-      <c r="T3" t="inlineStr"/>
-      <c r="U3" t="inlineStr"/>
-      <c r="V3" t="n">
-        <v>100000</v>
-      </c>
-      <c r="W3" t="n">
+      <c r="I3" t="n">
         <v>50000</v>
-      </c>
-      <c r="X3" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>3900000</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -3639,7 +2165,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB3"/>
+  <dimension ref="A1:Y3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3650,97 +2176,97 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>Ngày thực hiện</t>
+          <t>Tiền tố</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
+          <t>Mã đơn thu nợ</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Lượng thu</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
           <t>Ngày thu</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>notion id</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Tiền tố</t>
-        </is>
-      </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>Mã đơn thu nợ</t>
+          <t>Cơ sở</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>Cơ sở</t>
+          <t>Đơn nợ</t>
         </is>
       </c>
       <c r="G1" t="inlineStr">
         <is>
-          <t>id đơn nợ</t>
+          <t>Tên dịch vụ</t>
         </is>
       </c>
       <c r="H1" t="inlineStr">
         <is>
-          <t>Lượng thu</t>
+          <t>Khách hàng</t>
         </is>
       </c>
       <c r="I1" t="inlineStr">
         <is>
-          <t>Đơn nợ</t>
+          <t>Nguồn khách</t>
         </is>
       </c>
       <c r="J1" t="inlineStr">
         <is>
-          <t>Nguồn khách</t>
+          <t>Sale chính</t>
         </is>
       </c>
       <c r="K1" t="inlineStr">
         <is>
-          <t>Sale chính</t>
+          <t>Đơn giá gốc</t>
         </is>
       </c>
       <c r="L1" t="inlineStr">
         <is>
-          <t>Đơn giá gốc</t>
+          <t>Sale phụ</t>
         </is>
       </c>
       <c r="M1" t="inlineStr">
         <is>
-          <t>Sale phụ</t>
+          <t>Upsale</t>
         </is>
       </c>
       <c r="N1" t="inlineStr">
         <is>
-          <t>Upsale</t>
+          <t>Đơn giá</t>
         </is>
       </c>
       <c r="O1" t="inlineStr">
         <is>
+          <t>Đã thanh toán</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
           <t>Bác sĩ 1</t>
         </is>
       </c>
-      <c r="P1" t="inlineStr">
+      <c r="Q1" t="inlineStr">
         <is>
           <t>Bác sĩ 2</t>
         </is>
       </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>Thanh toán lần đầu</t>
-        </is>
-      </c>
       <c r="R1" t="inlineStr">
         <is>
-          <t>Đã thanh toán</t>
+          <t>Tỉ lệ chiết khấu sale chính</t>
         </is>
       </c>
       <c r="S1" t="inlineStr">
         <is>
-          <t>Tỉ lệ chiết khấu sale chính</t>
+          <t>Chiết khấu sale chính</t>
         </is>
       </c>
       <c r="T1" t="inlineStr">
@@ -3750,189 +2276,161 @@
       </c>
       <c r="U1" t="inlineStr">
         <is>
-          <t>id sale chính</t>
+          <t>Chiết khấu sale phụ</t>
         </is>
       </c>
       <c r="V1" t="inlineStr">
         <is>
-          <t>id sale phụ</t>
+          <t>Tỉ lệ chiết khấu bác sĩ 1</t>
         </is>
       </c>
       <c r="W1" t="inlineStr">
         <is>
-          <t>id bác sĩ 1</t>
+          <t>Chiết khấu bác sĩ 1</t>
         </is>
       </c>
       <c r="X1" t="inlineStr">
         <is>
-          <t>id bác sĩ 2</t>
+          <t>Tỉ lệ chiết khấu bác sĩ 2</t>
         </is>
       </c>
       <c r="Y1" t="inlineStr">
         <is>
-          <t>Chiết khấu bác sĩ 1</t>
-        </is>
-      </c>
-      <c r="Z1" t="inlineStr">
-        <is>
           <t>Chiết khấu bác sĩ 2</t>
-        </is>
-      </c>
-      <c r="AA1" t="inlineStr">
-        <is>
-          <t>Chiết khấu sale chính</t>
-        </is>
-      </c>
-      <c r="AB1" t="inlineStr">
-        <is>
-          <t>Chiết khấu sale phụ</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>06-18-2024</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
+          <t>TN</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>138</v>
+      </c>
+      <c r="C2" t="n">
+        <v>500000</v>
+      </c>
+      <c r="D2" t="inlineStr">
         <is>
           <t>07-06-2024</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>4a026544-4d22-46fc-a5d8-be541c0bfa71</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>TN</t>
-        </is>
-      </c>
-      <c r="E2" t="n">
-        <v>138</v>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>CẦN THƠ</t>
+          <t>HD-LUXURY-437</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>4796904d-04d7-4511-9678-3fc13f458e73</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
+          <t>Điêu khắc mày</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Nguyễn Hữu Dân</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>CTV</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>CTV Ngoài</t>
+        </is>
+      </c>
+      <c r="K2" t="n">
+        <v>2500000</v>
+      </c>
+      <c r="L2" t="n">
+        <v/>
+      </c>
+      <c r="M2" t="n">
+        <v/>
+      </c>
+      <c r="N2" t="n">
+        <v>2500000</v>
+      </c>
+      <c r="O2" t="n">
+        <v>2500000</v>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>Nguyễn Hoàng Yến Quyên</t>
+        </is>
+      </c>
+      <c r="Q2" t="n">
+        <v/>
+      </c>
+      <c r="R2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="W2" t="n">
+        <v>50000</v>
+      </c>
+      <c r="X2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Tổng</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
         <v>500000</v>
       </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>HD-LUXURY-437</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>CTV</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>CTV Ngoài</t>
-        </is>
-      </c>
-      <c r="L2" t="n">
-        <v>2500000</v>
-      </c>
-      <c r="M2" t="n">
-        <v/>
-      </c>
-      <c r="N2" t="n">
-        <v/>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>Nguyễn Hoàng Yến Quyên</t>
-        </is>
-      </c>
-      <c r="P2" t="n">
-        <v/>
-      </c>
-      <c r="Q2" t="n">
-        <v>2000000</v>
-      </c>
-      <c r="R2" t="n">
-        <v>2500000</v>
-      </c>
-      <c r="S2" t="n">
-        <v>0</v>
-      </c>
-      <c r="T2" t="n">
-        <v>0</v>
-      </c>
-      <c r="U2" t="inlineStr">
-        <is>
-          <t>7bb857c9-f973-440b-88f2-97e138ee6082</t>
-        </is>
-      </c>
-      <c r="V2" t="n">
-        <v/>
-      </c>
-      <c r="W2" t="inlineStr">
-        <is>
-          <t>75046948-a198-4627-89b3-3bbf5967526b</t>
-        </is>
-      </c>
-      <c r="X2" t="n">
-        <v/>
-      </c>
-      <c r="Y2" t="n">
-        <v>50000</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr"/>
-      <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Tổng</t>
-        </is>
-      </c>
-      <c r="E3" t="n">
-        <v>1</v>
-      </c>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
-      <c r="H3" t="n">
-        <v>500000</v>
-      </c>
+      <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="n">
+      <c r="K3" t="n">
         <v>2500000</v>
       </c>
-      <c r="M3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
       <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="inlineStr"/>
+        <v>2500000</v>
+      </c>
+      <c r="O3" t="n">
+        <v>2500000</v>
+      </c>
       <c r="P3" t="inlineStr"/>
-      <c r="Q3" t="n">
-        <v>2000000</v>
-      </c>
+      <c r="Q3" t="inlineStr"/>
       <c r="R3" t="n">
-        <v>2500000</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -3940,20 +2438,19 @@
       <c r="T3" t="n">
         <v>0</v>
       </c>
-      <c r="U3" t="inlineStr"/>
-      <c r="V3" t="inlineStr"/>
-      <c r="W3" t="inlineStr"/>
-      <c r="X3" t="inlineStr"/>
+      <c r="U3" t="n">
+        <v>0</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="W3" t="n">
+        <v>50000</v>
+      </c>
+      <c r="X3" t="n">
+        <v>0</v>
+      </c>
       <c r="Y3" t="n">
-        <v>50000</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3968,7 +2465,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B31"/>
+  <dimension ref="A1:B34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3979,7 +2476,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>Danh mục</t>
+          <t>Danh mục lương</t>
         </is>
       </c>
       <c r="B1" t="n">
@@ -3993,7 +2490,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>18.5</v>
+        <v>19.5</v>
       </c>
     </row>
     <row r="3">
@@ -4003,7 +2500,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>647500</v>
+        <v>682500</v>
       </c>
     </row>
     <row r="4">
@@ -4013,7 +2510,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>5180000</v>
+        <v>5460000</v>
       </c>
     </row>
     <row r="5">
@@ -4079,37 +2576,37 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Ứng lương tại CẦN THƠ</t>
+          <t>Chiết khấu thu nợ tại CẦN THƠ</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-500000</v>
+        <v>50000</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Lương cơ bản tại LONG XUYÊN</t>
+          <t>Ứng lương tại CẦN THƠ</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v/>
+        <v>-500000</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Chiết khấu sale chính tại LONG XUYÊN</t>
+          <t>Lương cơ bản tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v/>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Chiết khấu sale phụ tại LONG XUYÊN</t>
+          <t>Chiết khấu sale chính tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B14" t="n">
@@ -4119,27 +2616,27 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Đơn 1 bác sĩ tại LONG XUYÊN</t>
+          <t>Chiết khấu sale phụ tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>350000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Đơn 2 bác sĩ tại LONG XUYÊN</t>
+          <t>Đơn 1 bác sĩ tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>350000</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Công phụ phẫu 1 tại LONG XUYÊN</t>
+          <t>Đơn 2 bác sĩ tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -4149,7 +2646,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Công phụ phẫu 2 tại LONG XUYÊN</t>
+          <t>Công phụ phẫu 1 tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -4159,57 +2656,57 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Ứng lương tại LONG XUYÊN</t>
+          <t>Công phụ phẫu 2 tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Lương cơ bản tại SÓC TRĂNG</t>
+          <t>Chiết khấu thu nợ tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v/>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Chiết khấu sale chính tại SÓC TRĂNG</t>
+          <t>Ứng lương tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Chiết khấu sale phụ tại SÓC TRĂNG</t>
+          <t>Lương cơ bản tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v/>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Đơn 1 bác sĩ tại SÓC TRĂNG</t>
+          <t>Chiết khấu sale chính tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2850000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Đơn 2 bác sĩ tại SÓC TRĂNG</t>
+          <t>Chiết khấu sale phụ tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B24" t="n">
@@ -4219,71 +2716,101 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Công phụ phẫu 1 tại SÓC TRĂNG</t>
+          <t>Đơn 1 bác sĩ tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>2850000</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Công phụ phẫu 2 tại SÓC TRĂNG</t>
+          <t>Đơn 2 bác sĩ tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>50000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Ứng lương tại SÓC TRĂNG</t>
+          <t>Công phụ phẫu 1 tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Tổng lương tại CẦN THƠ</t>
+          <t>Công phụ phẫu 2 tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>14318750</v>
+        <v>50000</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Tổng lương tại LONG XUYÊN</t>
+          <t>Chiết khấu thu nợ tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>350000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Tổng lương tại SÓC TRĂNG</t>
+          <t>Ứng lương tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>2900000</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
+          <t>Tổng lương tại CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>9827500</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Tổng lương tại LONG XUYÊN</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>350000</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Tổng lương tại SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>2900000</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
           <t>Tổng lương</t>
         </is>
       </c>
-      <c r="B31" t="n">
-        <v>17568750</v>
+      <c r="B34" t="n">
+        <v>13077500</v>
       </c>
     </row>
   </sheetData>
